--- a/raw_data/20200818_saline/20200818_Sensor2_Test_8.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor2_Test_8.xlsx
@@ -1,598 +1,1014 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3A8E65B-CD75-4286-B2AA-B49791ADAB68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>6669.269882</v>
+        <v>6669.2698819999996</v>
       </c>
       <c r="B2" s="1">
-        <v>1.852575</v>
+        <v>1.8525750000000001</v>
       </c>
       <c r="C2" s="1">
-        <v>1245.870000</v>
+        <v>1245.8699999999999</v>
       </c>
       <c r="D2" s="1">
-        <v>-308.273000</v>
+        <v>-308.27300000000002</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>6679.040077</v>
+        <v>6679.0400769999997</v>
       </c>
       <c r="G2" s="1">
         <v>1.855289</v>
       </c>
       <c r="H2" s="1">
-        <v>1271.830000</v>
+        <v>1271.83</v>
       </c>
       <c r="I2" s="1">
-        <v>-265.574000</v>
+        <v>-265.57400000000001</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>6689.122117</v>
+        <v>6689.1221169999999</v>
       </c>
       <c r="L2" s="1">
-        <v>1.858089</v>
+        <v>1.8580890000000001</v>
       </c>
       <c r="M2" s="1">
-        <v>1306.770000</v>
+        <v>1306.77</v>
       </c>
       <c r="N2" s="1">
-        <v>-202.844000</v>
+        <v>-202.84399999999999</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>6699.304147</v>
+        <v>6699.3041469999998</v>
       </c>
       <c r="Q2" s="1">
-        <v>1.860918</v>
+        <v>1.8609180000000001</v>
       </c>
       <c r="R2" s="1">
-        <v>1318.400000</v>
+        <v>1318.4</v>
       </c>
       <c r="S2" s="1">
-        <v>-184.864000</v>
+        <v>-184.864</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>6709.824810</v>
+        <v>6709.8248100000001</v>
       </c>
       <c r="V2" s="1">
-        <v>1.863840</v>
+        <v>1.8638399999999999</v>
       </c>
       <c r="W2" s="1">
-        <v>1331.310000</v>
+        <v>1331.31</v>
       </c>
       <c r="X2" s="1">
-        <v>-171.206000</v>
+        <v>-171.20599999999999</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>6720.276008</v>
+        <v>6720.2760079999998</v>
       </c>
       <c r="AA2" s="1">
         <v>1.866743</v>
       </c>
       <c r="AB2" s="1">
-        <v>1348.320000</v>
+        <v>1348.32</v>
       </c>
       <c r="AC2" s="1">
-        <v>-169.189000</v>
+        <v>-169.18899999999999</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>6730.910201</v>
+        <v>6730.9102009999997</v>
       </c>
       <c r="AF2" s="1">
-        <v>1.869697</v>
+        <v>1.8696969999999999</v>
       </c>
       <c r="AG2" s="1">
-        <v>1361.150000</v>
+        <v>1361.15</v>
       </c>
       <c r="AH2" s="1">
-        <v>-178.968000</v>
+        <v>-178.96799999999999</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>6741.342565</v>
+        <v>6741.3425649999999</v>
       </c>
       <c r="AK2" s="1">
         <v>1.872595</v>
       </c>
       <c r="AL2" s="1">
-        <v>1381.580000</v>
+        <v>1381.58</v>
       </c>
       <c r="AM2" s="1">
-        <v>-209.157000</v>
+        <v>-209.15700000000001</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
         <v>6751.904861</v>
@@ -601,632 +1017,632 @@
         <v>1.875529</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1403.020000</v>
+        <v>1403.02</v>
       </c>
       <c r="AR2" s="1">
-        <v>-253.380000</v>
+        <v>-253.38</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>6762.895217</v>
+        <v>6762.8952170000002</v>
       </c>
       <c r="AU2" s="1">
         <v>1.878582</v>
       </c>
       <c r="AV2" s="1">
-        <v>1427.300000</v>
+        <v>1427.3</v>
       </c>
       <c r="AW2" s="1">
-        <v>-313.917000</v>
+        <v>-313.91699999999997</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>6774.020480</v>
+        <v>6774.0204800000001</v>
       </c>
       <c r="AZ2" s="1">
         <v>1.881672</v>
       </c>
       <c r="BA2" s="1">
-        <v>1446.380000</v>
+        <v>1446.38</v>
       </c>
       <c r="BB2" s="1">
-        <v>-366.499000</v>
+        <v>-366.49900000000002</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>6784.949331</v>
+        <v>6784.9493309999998</v>
       </c>
       <c r="BE2" s="1">
         <v>1.884708</v>
       </c>
       <c r="BF2" s="1">
-        <v>1530.300000</v>
+        <v>1530.3</v>
       </c>
       <c r="BG2" s="1">
-        <v>-617.982000</v>
+        <v>-617.98199999999997</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>6796.418818</v>
+        <v>6796.4188180000001</v>
       </c>
       <c r="BJ2" s="1">
         <v>1.887894</v>
       </c>
       <c r="BK2" s="1">
-        <v>1682.430000</v>
+        <v>1682.43</v>
       </c>
       <c r="BL2" s="1">
-        <v>-1071.000000</v>
+        <v>-1071</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>6807.172614</v>
+        <v>6807.1726140000001</v>
       </c>
       <c r="BO2" s="1">
         <v>1.890881</v>
       </c>
       <c r="BP2" s="1">
-        <v>1974.580000</v>
+        <v>1974.58</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-1859.810000</v>
+        <v>-1859.81</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>6817.526079</v>
+        <v>6817.5260790000002</v>
       </c>
       <c r="BT2" s="1">
-        <v>1.893757</v>
+        <v>1.8937569999999999</v>
       </c>
       <c r="BU2" s="1">
-        <v>2361.720000</v>
+        <v>2361.7199999999998</v>
       </c>
       <c r="BV2" s="1">
-        <v>-2777.170000</v>
+        <v>-2777.17</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
         <v>6828.552138</v>
       </c>
       <c r="BY2" s="1">
-        <v>1.896820</v>
+        <v>1.89682</v>
       </c>
       <c r="BZ2" s="1">
-        <v>2846.590000</v>
+        <v>2846.59</v>
       </c>
       <c r="CA2" s="1">
-        <v>-3777.750000</v>
+        <v>-3777.75</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>6839.488426</v>
+        <v>6839.4884259999999</v>
       </c>
       <c r="CD2" s="1">
         <v>1.899858</v>
       </c>
       <c r="CE2" s="1">
-        <v>4296.160000</v>
+        <v>4296.16</v>
       </c>
       <c r="CF2" s="1">
-        <v>-6204.590000</v>
+        <v>-6204.59</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>6669.629978</v>
+        <v>6669.6299779999999</v>
       </c>
       <c r="B3" s="1">
-        <v>1.852675</v>
+        <v>1.8526750000000001</v>
       </c>
       <c r="C3" s="1">
-        <v>1246.300000</v>
+        <v>1246.3</v>
       </c>
       <c r="D3" s="1">
-        <v>-308.275000</v>
+        <v>-308.27499999999998</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>6679.383805</v>
+        <v>6679.3838050000004</v>
       </c>
       <c r="G3" s="1">
-        <v>1.855384</v>
+        <v>1.8553839999999999</v>
       </c>
       <c r="H3" s="1">
-        <v>1271.780000</v>
+        <v>1271.78</v>
       </c>
       <c r="I3" s="1">
-        <v>-265.616000</v>
+        <v>-265.61599999999999</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>6689.503185</v>
+        <v>6689.5031849999996</v>
       </c>
       <c r="L3" s="1">
         <v>1.858195</v>
       </c>
       <c r="M3" s="1">
-        <v>1306.620000</v>
+        <v>1306.6199999999999</v>
       </c>
       <c r="N3" s="1">
-        <v>-203.035000</v>
+        <v>-203.035</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>6699.709858</v>
+        <v>6699.7098580000002</v>
       </c>
       <c r="Q3" s="1">
-        <v>1.861031</v>
+        <v>1.8610310000000001</v>
       </c>
       <c r="R3" s="1">
-        <v>1318.300000</v>
+        <v>1318.3</v>
       </c>
       <c r="S3" s="1">
-        <v>-184.838000</v>
+        <v>-184.83799999999999</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>6710.242900</v>
+        <v>6710.2429000000002</v>
       </c>
       <c r="V3" s="1">
-        <v>1.863956</v>
+        <v>1.8639559999999999</v>
       </c>
       <c r="W3" s="1">
-        <v>1331.470000</v>
+        <v>1331.47</v>
       </c>
       <c r="X3" s="1">
-        <v>-171.341000</v>
+        <v>-171.34100000000001</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>6720.383608</v>
+        <v>6720.3836080000001</v>
       </c>
       <c r="AA3" s="1">
         <v>1.866773</v>
       </c>
       <c r="AB3" s="1">
-        <v>1348.230000</v>
+        <v>1348.23</v>
       </c>
       <c r="AC3" s="1">
-        <v>-169.023000</v>
+        <v>-169.023</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>6731.283193</v>
+        <v>6731.2831930000002</v>
       </c>
       <c r="AF3" s="1">
         <v>1.869801</v>
       </c>
       <c r="AG3" s="1">
-        <v>1361.160000</v>
+        <v>1361.16</v>
       </c>
       <c r="AH3" s="1">
-        <v>-179.007000</v>
+        <v>-179.00700000000001</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>6741.709135</v>
+        <v>6741.7091350000001</v>
       </c>
       <c r="AK3" s="1">
-        <v>1.872697</v>
+        <v>1.8726970000000001</v>
       </c>
       <c r="AL3" s="1">
-        <v>1381.580000</v>
+        <v>1381.58</v>
       </c>
       <c r="AM3" s="1">
-        <v>-209.115000</v>
+        <v>-209.11500000000001</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
         <v>6752.295212</v>
       </c>
       <c r="AP3" s="1">
-        <v>1.875638</v>
+        <v>1.8756379999999999</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1403.000000</v>
+        <v>1403</v>
       </c>
       <c r="AR3" s="1">
-        <v>-253.389000</v>
+        <v>-253.38900000000001</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>6763.632269</v>
+        <v>6763.6322689999997</v>
       </c>
       <c r="AU3" s="1">
         <v>1.878787</v>
       </c>
       <c r="AV3" s="1">
-        <v>1427.290000</v>
+        <v>1427.29</v>
       </c>
       <c r="AW3" s="1">
-        <v>-313.879000</v>
+        <v>-313.87900000000002</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>6774.428228</v>
+        <v>6774.4282279999998</v>
       </c>
       <c r="AZ3" s="1">
         <v>1.881786</v>
       </c>
       <c r="BA3" s="1">
-        <v>1446.390000</v>
+        <v>1446.39</v>
       </c>
       <c r="BB3" s="1">
-        <v>-366.497000</v>
+        <v>-366.49700000000001</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>6785.345666</v>
+        <v>6785.3456660000002</v>
       </c>
       <c r="BE3" s="1">
-        <v>1.884818</v>
+        <v>1.8848180000000001</v>
       </c>
       <c r="BF3" s="1">
-        <v>1530.290000</v>
+        <v>1530.29</v>
       </c>
       <c r="BG3" s="1">
-        <v>-617.969000</v>
+        <v>-617.96900000000005</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>6796.818595</v>
+        <v>6796.8185949999997</v>
       </c>
       <c r="BJ3" s="1">
-        <v>1.888005</v>
+        <v>1.8880049999999999</v>
       </c>
       <c r="BK3" s="1">
-        <v>1682.340000</v>
+        <v>1682.34</v>
       </c>
       <c r="BL3" s="1">
-        <v>-1071.110000</v>
+        <v>-1071.1099999999999</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
         <v>6807.575828</v>
       </c>
       <c r="BO3" s="1">
-        <v>1.890993</v>
+        <v>1.8909929999999999</v>
       </c>
       <c r="BP3" s="1">
-        <v>1974.290000</v>
+        <v>1974.29</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-1860.190000</v>
+        <v>-1860.19</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
         <v>6818.324165</v>
       </c>
       <c r="BT3" s="1">
-        <v>1.893979</v>
+        <v>1.8939790000000001</v>
       </c>
       <c r="BU3" s="1">
-        <v>2360.450000</v>
+        <v>2360.4499999999998</v>
       </c>
       <c r="BV3" s="1">
-        <v>-2777.110000</v>
+        <v>-2777.11</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>6828.738168</v>
+        <v>6828.7381679999999</v>
       </c>
       <c r="BY3" s="1">
-        <v>1.896872</v>
+        <v>1.8968719999999999</v>
       </c>
       <c r="BZ3" s="1">
-        <v>2846.250000</v>
+        <v>2846.25</v>
       </c>
       <c r="CA3" s="1">
-        <v>-3778.040000</v>
+        <v>-3778.04</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>6839.812344</v>
+        <v>6839.8123439999999</v>
       </c>
       <c r="CD3" s="1">
         <v>1.899948</v>
       </c>
       <c r="CE3" s="1">
-        <v>4287.800000</v>
+        <v>4287.8</v>
       </c>
       <c r="CF3" s="1">
-        <v>-6216.960000</v>
+        <v>-6216.96</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>6669.971237</v>
+        <v>6669.9712369999997</v>
       </c>
       <c r="B4" s="1">
-        <v>1.852770</v>
+        <v>1.85277</v>
       </c>
       <c r="C4" s="1">
-        <v>1246.040000</v>
+        <v>1246.04</v>
       </c>
       <c r="D4" s="1">
-        <v>-308.483000</v>
+        <v>-308.483</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>6679.793500</v>
+        <v>6679.7934999999998</v>
       </c>
       <c r="G4" s="1">
-        <v>1.855498</v>
+        <v>1.8554980000000001</v>
       </c>
       <c r="H4" s="1">
-        <v>1272.870000</v>
+        <v>1272.8699999999999</v>
       </c>
       <c r="I4" s="1">
-        <v>-265.926000</v>
+        <v>-265.92599999999999</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>6689.954058</v>
+        <v>6689.9540580000003</v>
       </c>
       <c r="L4" s="1">
-        <v>1.858321</v>
+        <v>1.8583209999999999</v>
       </c>
       <c r="M4" s="1">
-        <v>1306.640000</v>
+        <v>1306.6400000000001</v>
       </c>
       <c r="N4" s="1">
-        <v>-203.243000</v>
+        <v>-203.24299999999999</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>6700.038705</v>
+        <v>6700.0387049999999</v>
       </c>
       <c r="Q4" s="1">
-        <v>1.861122</v>
+        <v>1.8611219999999999</v>
       </c>
       <c r="R4" s="1">
-        <v>1318.350000</v>
+        <v>1318.35</v>
       </c>
       <c r="S4" s="1">
-        <v>-184.824000</v>
+        <v>-184.82400000000001</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>6710.587139</v>
+        <v>6710.5871390000002</v>
       </c>
       <c r="V4" s="1">
         <v>1.864052</v>
       </c>
       <c r="W4" s="1">
-        <v>1331.280000</v>
+        <v>1331.28</v>
       </c>
       <c r="X4" s="1">
-        <v>-171.224000</v>
+        <v>-171.22399999999999</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>6720.726343</v>
+        <v>6720.7263430000003</v>
       </c>
       <c r="AA4" s="1">
         <v>1.866868</v>
       </c>
       <c r="AB4" s="1">
-        <v>1348.280000</v>
+        <v>1348.28</v>
       </c>
       <c r="AC4" s="1">
-        <v>-169.148000</v>
+        <v>-169.148</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>6731.625433</v>
+        <v>6731.6254330000002</v>
       </c>
       <c r="AF4" s="1">
         <v>1.869896</v>
       </c>
       <c r="AG4" s="1">
-        <v>1361.140000</v>
+        <v>1361.14</v>
       </c>
       <c r="AH4" s="1">
-        <v>-178.982000</v>
+        <v>-178.982</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>6742.407465</v>
+        <v>6742.4074650000002</v>
       </c>
       <c r="AK4" s="1">
-        <v>1.872891</v>
+        <v>1.8728910000000001</v>
       </c>
       <c r="AL4" s="1">
-        <v>1381.640000</v>
+        <v>1381.64</v>
       </c>
       <c r="AM4" s="1">
-        <v>-209.169000</v>
+        <v>-209.16900000000001</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>6753.013916</v>
+        <v>6753.0139159999999</v>
       </c>
       <c r="AP4" s="1">
         <v>1.875837</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1403.030000</v>
+        <v>1403.03</v>
       </c>
       <c r="AR4" s="1">
-        <v>-253.384000</v>
+        <v>-253.38399999999999</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>6763.998929</v>
+        <v>6763.9989290000003</v>
       </c>
       <c r="AU4" s="1">
         <v>1.878889</v>
       </c>
       <c r="AV4" s="1">
-        <v>1427.270000</v>
+        <v>1427.27</v>
       </c>
       <c r="AW4" s="1">
-        <v>-313.894000</v>
+        <v>-313.89400000000001</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>6774.801679</v>
+        <v>6774.8016790000001</v>
       </c>
       <c r="AZ4" s="1">
-        <v>1.881889</v>
+        <v>1.8818889999999999</v>
       </c>
       <c r="BA4" s="1">
-        <v>1446.380000</v>
+        <v>1446.38</v>
       </c>
       <c r="BB4" s="1">
-        <v>-366.521000</v>
+        <v>-366.52100000000002</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>6785.726096</v>
+        <v>6785.7260960000003</v>
       </c>
       <c r="BE4" s="1">
         <v>1.884924</v>
       </c>
       <c r="BF4" s="1">
-        <v>1530.290000</v>
+        <v>1530.29</v>
       </c>
       <c r="BG4" s="1">
-        <v>-618.020000</v>
+        <v>-618.02</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>6797.492187</v>
+        <v>6797.4921869999998</v>
       </c>
       <c r="BJ4" s="1">
-        <v>1.888192</v>
+        <v>1.8881920000000001</v>
       </c>
       <c r="BK4" s="1">
-        <v>1682.400000</v>
+        <v>1682.4</v>
       </c>
       <c r="BL4" s="1">
-        <v>-1071.020000</v>
+        <v>-1071.02</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>6808.303956</v>
+        <v>6808.3039559999997</v>
       </c>
       <c r="BO4" s="1">
-        <v>1.891196</v>
+        <v>1.8911960000000001</v>
       </c>
       <c r="BP4" s="1">
-        <v>1974.190000</v>
+        <v>1974.19</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-1860.090000</v>
+        <v>-1860.09</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>6818.435237</v>
+        <v>6818.4352369999997</v>
       </c>
       <c r="BT4" s="1">
-        <v>1.894010</v>
+        <v>1.89401</v>
       </c>
       <c r="BU4" s="1">
-        <v>2359.250000</v>
+        <v>2359.25</v>
       </c>
       <c r="BV4" s="1">
-        <v>-2776.860000</v>
+        <v>-2776.86</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>6829.188535</v>
+        <v>6829.1885350000002</v>
       </c>
       <c r="BY4" s="1">
         <v>1.896997</v>
       </c>
       <c r="BZ4" s="1">
-        <v>2846.090000</v>
+        <v>2846.09</v>
       </c>
       <c r="CA4" s="1">
-        <v>-3778.410000</v>
+        <v>-3778.41</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
         <v>6840.344548</v>
@@ -1235,240 +1651,240 @@
         <v>1.900096</v>
       </c>
       <c r="CE4" s="1">
-        <v>4286.670000</v>
+        <v>4286.67</v>
       </c>
       <c r="CF4" s="1">
-        <v>-6197.080000</v>
+        <v>-6197.08</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>6670.395306</v>
+        <v>6670.3953060000003</v>
       </c>
       <c r="B5" s="1">
-        <v>1.852888</v>
+        <v>1.8528880000000001</v>
       </c>
       <c r="C5" s="1">
-        <v>1246.270000</v>
+        <v>1246.27</v>
       </c>
       <c r="D5" s="1">
-        <v>-308.423000</v>
+        <v>-308.423</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>6680.071756</v>
+        <v>6680.0717560000003</v>
       </c>
       <c r="G5" s="1">
         <v>1.855575</v>
       </c>
       <c r="H5" s="1">
-        <v>1271.390000</v>
+        <v>1271.3900000000001</v>
       </c>
       <c r="I5" s="1">
-        <v>-265.900000</v>
+        <v>-265.89999999999998</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>6690.227839</v>
+        <v>6690.2278390000001</v>
       </c>
       <c r="L5" s="1">
-        <v>1.858397</v>
+        <v>1.8583970000000001</v>
       </c>
       <c r="M5" s="1">
-        <v>1306.580000</v>
+        <v>1306.58</v>
       </c>
       <c r="N5" s="1">
-        <v>-203.120000</v>
+        <v>-203.12</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>6700.388386</v>
+        <v>6700.3883859999996</v>
       </c>
       <c r="Q5" s="1">
         <v>1.861219</v>
       </c>
       <c r="R5" s="1">
-        <v>1318.400000</v>
+        <v>1318.4</v>
       </c>
       <c r="S5" s="1">
-        <v>-184.747000</v>
+        <v>-184.74700000000001</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>6710.929363</v>
+        <v>6710.9293630000002</v>
       </c>
       <c r="V5" s="1">
         <v>1.864147</v>
       </c>
       <c r="W5" s="1">
-        <v>1331.140000</v>
+        <v>1331.14</v>
       </c>
       <c r="X5" s="1">
-        <v>-171.239000</v>
+        <v>-171.239</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>6721.071063</v>
+        <v>6721.0710630000003</v>
       </c>
       <c r="AA5" s="1">
-        <v>1.866964</v>
+        <v>1.8669640000000001</v>
       </c>
       <c r="AB5" s="1">
-        <v>1348.360000</v>
+        <v>1348.36</v>
       </c>
       <c r="AC5" s="1">
-        <v>-169.204000</v>
+        <v>-169.20400000000001</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>6732.310935</v>
+        <v>6732.3109350000004</v>
       </c>
       <c r="AF5" s="1">
-        <v>1.870086</v>
+        <v>1.8700859999999999</v>
       </c>
       <c r="AG5" s="1">
-        <v>1361.130000</v>
+        <v>1361.13</v>
       </c>
       <c r="AH5" s="1">
-        <v>-179.039000</v>
+        <v>-179.03899999999999</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>6742.755657</v>
+        <v>6742.7556569999997</v>
       </c>
       <c r="AK5" s="1">
-        <v>1.872988</v>
+        <v>1.8729880000000001</v>
       </c>
       <c r="AL5" s="1">
-        <v>1381.550000</v>
+        <v>1381.55</v>
       </c>
       <c r="AM5" s="1">
-        <v>-209.148000</v>
+        <v>-209.148</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>6753.374507</v>
+        <v>6753.3745070000004</v>
       </c>
       <c r="AP5" s="1">
         <v>1.875937</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1403.040000</v>
+        <v>1403.04</v>
       </c>
       <c r="AR5" s="1">
-        <v>-253.385000</v>
+        <v>-253.38499999999999</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>6764.363373</v>
+        <v>6764.3633730000001</v>
       </c>
       <c r="AU5" s="1">
-        <v>1.878990</v>
+        <v>1.8789899999999999</v>
       </c>
       <c r="AV5" s="1">
-        <v>1427.310000</v>
+        <v>1427.31</v>
       </c>
       <c r="AW5" s="1">
-        <v>-313.896000</v>
+        <v>-313.89600000000002</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>6775.139960</v>
+        <v>6775.1399600000004</v>
       </c>
       <c r="AZ5" s="1">
         <v>1.881983</v>
       </c>
       <c r="BA5" s="1">
-        <v>1446.350000</v>
+        <v>1446.35</v>
       </c>
       <c r="BB5" s="1">
-        <v>-366.550000</v>
+        <v>-366.55</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>6786.393220</v>
+        <v>6786.3932199999999</v>
       </c>
       <c r="BE5" s="1">
-        <v>1.885109</v>
+        <v>1.8851089999999999</v>
       </c>
       <c r="BF5" s="1">
-        <v>1530.280000</v>
+        <v>1530.28</v>
       </c>
       <c r="BG5" s="1">
-        <v>-617.983000</v>
+        <v>-617.98299999999995</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>6797.605745</v>
+        <v>6797.6057449999998</v>
       </c>
       <c r="BJ5" s="1">
-        <v>1.888224</v>
+        <v>1.8882239999999999</v>
       </c>
       <c r="BK5" s="1">
-        <v>1682.360000</v>
+        <v>1682.36</v>
       </c>
       <c r="BL5" s="1">
-        <v>-1071.030000</v>
+        <v>-1071.03</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>6808.419560</v>
+        <v>6808.4195600000003</v>
       </c>
       <c r="BO5" s="1">
-        <v>1.891228</v>
+        <v>1.8912279999999999</v>
       </c>
       <c r="BP5" s="1">
-        <v>1974.170000</v>
+        <v>1974.17</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-1860.150000</v>
+        <v>-1860.15</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>6818.865806</v>
+        <v>6818.8658059999998</v>
       </c>
       <c r="BT5" s="1">
         <v>1.894129</v>
       </c>
       <c r="BU5" s="1">
-        <v>2358.380000</v>
+        <v>2358.38</v>
       </c>
       <c r="BV5" s="1">
-        <v>-2776.200000</v>
+        <v>-2776.2</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
         <v>6829.609606</v>
@@ -1477,135 +1893,135 @@
         <v>1.897114</v>
       </c>
       <c r="BZ5" s="1">
-        <v>2846.710000</v>
+        <v>2846.71</v>
       </c>
       <c r="CA5" s="1">
-        <v>-3778.040000</v>
+        <v>-3778.04</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>6840.882706</v>
+        <v>6840.8827060000003</v>
       </c>
       <c r="CD5" s="1">
         <v>1.900245</v>
       </c>
       <c r="CE5" s="1">
-        <v>4273.950000</v>
+        <v>4273.95</v>
       </c>
       <c r="CF5" s="1">
-        <v>-6219.370000</v>
+        <v>-6219.37</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>6670.687480</v>
+        <v>6670.6874799999996</v>
       </c>
       <c r="B6" s="1">
-        <v>1.852969</v>
+        <v>1.8529690000000001</v>
       </c>
       <c r="C6" s="1">
-        <v>1246.530000</v>
+        <v>1246.53</v>
       </c>
       <c r="D6" s="1">
-        <v>-308.593000</v>
+        <v>-308.59300000000002</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>6680.414492</v>
+        <v>6680.4144919999999</v>
       </c>
       <c r="G6" s="1">
-        <v>1.855671</v>
+        <v>1.8556710000000001</v>
       </c>
       <c r="H6" s="1">
-        <v>1271.900000</v>
+        <v>1271.9000000000001</v>
       </c>
       <c r="I6" s="1">
-        <v>-265.302000</v>
+        <v>-265.30200000000002</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>6690.575038</v>
+        <v>6690.5750379999999</v>
       </c>
       <c r="L6" s="1">
         <v>1.858493</v>
       </c>
       <c r="M6" s="1">
-        <v>1306.790000</v>
+        <v>1306.79</v>
       </c>
       <c r="N6" s="1">
-        <v>-203.163000</v>
+        <v>-203.16300000000001</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>6700.736112</v>
+        <v>6700.7361119999996</v>
       </c>
       <c r="Q6" s="1">
         <v>1.861316</v>
       </c>
       <c r="R6" s="1">
-        <v>1318.430000</v>
+        <v>1318.43</v>
       </c>
       <c r="S6" s="1">
-        <v>-184.876000</v>
+        <v>-184.876</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>6711.616323</v>
+        <v>6711.6163230000002</v>
       </c>
       <c r="V6" s="1">
-        <v>1.864338</v>
+        <v>1.8643380000000001</v>
       </c>
       <c r="W6" s="1">
-        <v>1331.200000</v>
+        <v>1331.2</v>
       </c>
       <c r="X6" s="1">
-        <v>-171.225000</v>
+        <v>-171.22499999999999</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>6721.771911</v>
+        <v>6721.7719109999998</v>
       </c>
       <c r="AA6" s="1">
         <v>1.867159</v>
       </c>
       <c r="AB6" s="1">
-        <v>1348.330000</v>
+        <v>1348.33</v>
       </c>
       <c r="AC6" s="1">
-        <v>-169.276000</v>
+        <v>-169.27600000000001</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
         <v>6732.658598</v>
       </c>
       <c r="AF6" s="1">
-        <v>1.870183</v>
+        <v>1.8701829999999999</v>
       </c>
       <c r="AG6" s="1">
-        <v>1361.160000</v>
+        <v>1361.16</v>
       </c>
       <c r="AH6" s="1">
-        <v>-179.008000</v>
+        <v>-179.00800000000001</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
         <v>6743.101369</v>
@@ -1614,240 +2030,240 @@
         <v>1.873084</v>
       </c>
       <c r="AL6" s="1">
-        <v>1381.610000</v>
+        <v>1381.61</v>
       </c>
       <c r="AM6" s="1">
-        <v>-209.135000</v>
+        <v>-209.13499999999999</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>6753.735629</v>
+        <v>6753.7356289999998</v>
       </c>
       <c r="AP6" s="1">
-        <v>1.876038</v>
+        <v>1.8760380000000001</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1403.000000</v>
+        <v>1403</v>
       </c>
       <c r="AR6" s="1">
-        <v>-253.361000</v>
+        <v>-253.36099999999999</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>6765.030491</v>
+        <v>6765.0304910000004</v>
       </c>
       <c r="AU6" s="1">
         <v>1.879175</v>
       </c>
       <c r="AV6" s="1">
-        <v>1427.290000</v>
+        <v>1427.29</v>
       </c>
       <c r="AW6" s="1">
-        <v>-313.915000</v>
+        <v>-313.91500000000002</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>6775.859645</v>
+        <v>6775.8596450000005</v>
       </c>
       <c r="AZ6" s="1">
-        <v>1.882183</v>
+        <v>1.8821829999999999</v>
       </c>
       <c r="BA6" s="1">
-        <v>1446.390000</v>
+        <v>1446.39</v>
       </c>
       <c r="BB6" s="1">
-        <v>-366.494000</v>
+        <v>-366.49400000000003</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
         <v>6786.811807</v>
       </c>
       <c r="BE6" s="1">
-        <v>1.885226</v>
+        <v>1.8852260000000001</v>
       </c>
       <c r="BF6" s="1">
-        <v>1530.290000</v>
+        <v>1530.29</v>
       </c>
       <c r="BG6" s="1">
-        <v>-617.971000</v>
+        <v>-617.971</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>6797.982239</v>
+        <v>6797.9822389999999</v>
       </c>
       <c r="BJ6" s="1">
         <v>1.888328</v>
       </c>
       <c r="BK6" s="1">
-        <v>1682.310000</v>
+        <v>1682.31</v>
       </c>
       <c r="BL6" s="1">
-        <v>-1071.130000</v>
+        <v>-1071.1300000000001</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>6808.817316</v>
+        <v>6808.8173159999997</v>
       </c>
       <c r="BO6" s="1">
         <v>1.891338</v>
       </c>
       <c r="BP6" s="1">
-        <v>1974.210000</v>
+        <v>1974.21</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-1860.120000</v>
+        <v>-1860.12</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>6819.295300</v>
+        <v>6819.2952999999998</v>
       </c>
       <c r="BT6" s="1">
-        <v>1.894249</v>
+        <v>1.8942490000000001</v>
       </c>
       <c r="BU6" s="1">
-        <v>2358.720000</v>
+        <v>2358.7199999999998</v>
       </c>
       <c r="BV6" s="1">
-        <v>-2774.720000</v>
+        <v>-2774.72</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>6830.031206</v>
+        <v>6830.0312059999997</v>
       </c>
       <c r="BY6" s="1">
-        <v>1.897231</v>
+        <v>1.8972309999999999</v>
       </c>
       <c r="BZ6" s="1">
-        <v>2846.720000</v>
+        <v>2846.72</v>
       </c>
       <c r="CA6" s="1">
-        <v>-3777.910000</v>
+        <v>-3777.91</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>6841.423351</v>
+        <v>6841.4233510000004</v>
       </c>
       <c r="CD6" s="1">
-        <v>1.900395</v>
+        <v>1.9003950000000001</v>
       </c>
       <c r="CE6" s="1">
-        <v>4293.550000</v>
+        <v>4293.55</v>
       </c>
       <c r="CF6" s="1">
-        <v>-6207.610000</v>
+        <v>-6207.61</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>6671.030680</v>
+        <v>6671.0306799999998</v>
       </c>
       <c r="B7" s="1">
         <v>1.853064</v>
       </c>
       <c r="C7" s="1">
-        <v>1246.360000</v>
+        <v>1246.3599999999999</v>
       </c>
       <c r="D7" s="1">
-        <v>-308.891000</v>
+        <v>-308.89100000000002</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>6680.764207</v>
+        <v>6680.7642070000002</v>
       </c>
       <c r="G7" s="1">
-        <v>1.855768</v>
+        <v>1.8557680000000001</v>
       </c>
       <c r="H7" s="1">
-        <v>1271.460000</v>
+        <v>1271.46</v>
       </c>
       <c r="I7" s="1">
-        <v>-266.192000</v>
+        <v>-266.19200000000001</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>6691.263981</v>
+        <v>6691.2639810000001</v>
       </c>
       <c r="L7" s="1">
         <v>1.858684</v>
       </c>
       <c r="M7" s="1">
-        <v>1306.020000</v>
+        <v>1306.02</v>
       </c>
       <c r="N7" s="1">
-        <v>-203.153000</v>
+        <v>-203.15299999999999</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
         <v>6701.430985</v>
       </c>
       <c r="Q7" s="1">
-        <v>1.861509</v>
+        <v>1.8615090000000001</v>
       </c>
       <c r="R7" s="1">
-        <v>1318.380000</v>
+        <v>1318.38</v>
       </c>
       <c r="S7" s="1">
-        <v>-184.866000</v>
+        <v>-184.86600000000001</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>6711.960082</v>
+        <v>6711.9600819999996</v>
       </c>
       <c r="V7" s="1">
         <v>1.864433</v>
       </c>
       <c r="W7" s="1">
-        <v>1331.360000</v>
+        <v>1331.36</v>
       </c>
       <c r="X7" s="1">
-        <v>-171.313000</v>
+        <v>-171.31299999999999</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>6722.121094</v>
+        <v>6722.1210940000001</v>
       </c>
       <c r="AA7" s="1">
         <v>1.867256</v>
       </c>
       <c r="AB7" s="1">
-        <v>1348.330000</v>
+        <v>1348.33</v>
       </c>
       <c r="AC7" s="1">
-        <v>-169.165000</v>
+        <v>-169.16499999999999</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
         <v>6733.003318</v>
@@ -1856,180 +2272,180 @@
         <v>1.870279</v>
       </c>
       <c r="AG7" s="1">
-        <v>1361.120000</v>
+        <v>1361.12</v>
       </c>
       <c r="AH7" s="1">
-        <v>-178.953000</v>
+        <v>-178.953</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>6743.750705</v>
+        <v>6743.7507050000004</v>
       </c>
       <c r="AK7" s="1">
         <v>1.873264</v>
       </c>
       <c r="AL7" s="1">
-        <v>1381.560000</v>
+        <v>1381.56</v>
       </c>
       <c r="AM7" s="1">
-        <v>-209.148000</v>
+        <v>-209.148</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>6754.405689</v>
+        <v>6754.4056890000002</v>
       </c>
       <c r="AP7" s="1">
-        <v>1.876224</v>
+        <v>1.8762239999999999</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1402.990000</v>
+        <v>1402.99</v>
       </c>
       <c r="AR7" s="1">
-        <v>-253.374000</v>
+        <v>-253.374</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>6765.486812</v>
+        <v>6765.4868120000001</v>
       </c>
       <c r="AU7" s="1">
         <v>1.879302</v>
       </c>
       <c r="AV7" s="1">
-        <v>1427.320000</v>
+        <v>1427.32</v>
       </c>
       <c r="AW7" s="1">
-        <v>-313.879000</v>
+        <v>-313.87900000000002</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>6776.236109</v>
+        <v>6776.2361090000004</v>
       </c>
       <c r="AZ7" s="1">
         <v>1.882288</v>
       </c>
       <c r="BA7" s="1">
-        <v>1446.370000</v>
+        <v>1446.37</v>
       </c>
       <c r="BB7" s="1">
-        <v>-366.504000</v>
+        <v>-366.50400000000002</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
         <v>6787.202687</v>
       </c>
       <c r="BE7" s="1">
-        <v>1.885334</v>
+        <v>1.8853340000000001</v>
       </c>
       <c r="BF7" s="1">
-        <v>1530.280000</v>
+        <v>1530.28</v>
       </c>
       <c r="BG7" s="1">
-        <v>-618.009000</v>
+        <v>-618.00900000000001</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>6798.356227</v>
+        <v>6798.3562270000002</v>
       </c>
       <c r="BJ7" s="1">
-        <v>1.888432</v>
+        <v>1.8884320000000001</v>
       </c>
       <c r="BK7" s="1">
-        <v>1682.260000</v>
+        <v>1682.26</v>
       </c>
       <c r="BL7" s="1">
-        <v>-1071.100000</v>
+        <v>-1071.0999999999999</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>6809.261594</v>
+        <v>6809.2615939999996</v>
       </c>
       <c r="BO7" s="1">
         <v>1.891462</v>
       </c>
       <c r="BP7" s="1">
-        <v>1974.220000</v>
+        <v>1974.22</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-1860.230000</v>
+        <v>-1860.23</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>6819.706483</v>
+        <v>6819.7064829999999</v>
       </c>
       <c r="BT7" s="1">
         <v>1.894363</v>
       </c>
       <c r="BU7" s="1">
-        <v>2358.610000</v>
+        <v>2358.61</v>
       </c>
       <c r="BV7" s="1">
-        <v>-2773.970000</v>
+        <v>-2773.97</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>6830.487030</v>
+        <v>6830.4870300000002</v>
       </c>
       <c r="BY7" s="1">
-        <v>1.897358</v>
+        <v>1.8973580000000001</v>
       </c>
       <c r="BZ7" s="1">
-        <v>2846.460000</v>
+        <v>2846.46</v>
       </c>
       <c r="CA7" s="1">
-        <v>-3777.980000</v>
+        <v>-3777.98</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>6841.962005</v>
+        <v>6841.9620050000003</v>
       </c>
       <c r="CD7" s="1">
-        <v>1.900545</v>
+        <v>1.9005449999999999</v>
       </c>
       <c r="CE7" s="1">
-        <v>4273.410000</v>
+        <v>4273.41</v>
       </c>
       <c r="CF7" s="1">
-        <v>-6202.870000</v>
+        <v>-6202.87</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>6671.371927</v>
+        <v>6671.3719270000001</v>
       </c>
       <c r="B8" s="1">
         <v>1.853159</v>
       </c>
       <c r="C8" s="1">
-        <v>1246.800000</v>
+        <v>1246.8</v>
       </c>
       <c r="D8" s="1">
-        <v>-308.731000</v>
+        <v>-308.73099999999999</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
         <v>6681.447658</v>
@@ -2038,118 +2454,118 @@
         <v>1.855958</v>
       </c>
       <c r="H8" s="1">
-        <v>1271.520000</v>
+        <v>1271.52</v>
       </c>
       <c r="I8" s="1">
-        <v>-265.656000</v>
+        <v>-265.65600000000001</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>6691.608206</v>
+        <v>6691.6082059999999</v>
       </c>
       <c r="L8" s="1">
-        <v>1.858780</v>
+        <v>1.8587800000000001</v>
       </c>
       <c r="M8" s="1">
-        <v>1306.920000</v>
+        <v>1306.92</v>
       </c>
       <c r="N8" s="1">
-        <v>-203.080000</v>
+        <v>-203.08</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>6701.780655</v>
+        <v>6701.7806549999996</v>
       </c>
       <c r="Q8" s="1">
-        <v>1.861606</v>
+        <v>1.8616060000000001</v>
       </c>
       <c r="R8" s="1">
-        <v>1318.380000</v>
+        <v>1318.38</v>
       </c>
       <c r="S8" s="1">
-        <v>-184.834000</v>
+        <v>-184.834</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>6712.306289</v>
+        <v>6712.3062890000001</v>
       </c>
       <c r="V8" s="1">
-        <v>1.864530</v>
+        <v>1.86453</v>
       </c>
       <c r="W8" s="1">
-        <v>1331.320000</v>
+        <v>1331.32</v>
       </c>
       <c r="X8" s="1">
-        <v>-171.338000</v>
+        <v>-171.33799999999999</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>6722.470774</v>
+        <v>6722.4707740000003</v>
       </c>
       <c r="AA8" s="1">
         <v>1.867353</v>
       </c>
       <c r="AB8" s="1">
-        <v>1348.480000</v>
+        <v>1348.48</v>
       </c>
       <c r="AC8" s="1">
-        <v>-169.159000</v>
+        <v>-169.15899999999999</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>6733.645669</v>
+        <v>6733.6456690000005</v>
       </c>
       <c r="AF8" s="1">
         <v>1.870457</v>
       </c>
       <c r="AG8" s="1">
-        <v>1361.170000</v>
+        <v>1361.17</v>
       </c>
       <c r="AH8" s="1">
-        <v>-178.967000</v>
+        <v>-178.96700000000001</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>6744.147960</v>
+        <v>6744.1479600000002</v>
       </c>
       <c r="AK8" s="1">
-        <v>1.873374</v>
+        <v>1.8733740000000001</v>
       </c>
       <c r="AL8" s="1">
-        <v>1381.560000</v>
+        <v>1381.56</v>
       </c>
       <c r="AM8" s="1">
-        <v>-209.133000</v>
+        <v>-209.13300000000001</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>6754.845642</v>
+        <v>6754.8456420000002</v>
       </c>
       <c r="AP8" s="1">
-        <v>1.876346</v>
+        <v>1.8763460000000001</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1403.000000</v>
+        <v>1403</v>
       </c>
       <c r="AR8" s="1">
-        <v>-253.371000</v>
+        <v>-253.37100000000001</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
         <v>6765.848661</v>
@@ -2158,527 +2574,527 @@
         <v>1.879402</v>
       </c>
       <c r="AV8" s="1">
-        <v>1427.290000</v>
+        <v>1427.29</v>
       </c>
       <c r="AW8" s="1">
-        <v>-313.873000</v>
+        <v>-313.87299999999999</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>6776.606630</v>
+        <v>6776.6066300000002</v>
       </c>
       <c r="AZ8" s="1">
-        <v>1.882391</v>
+        <v>1.8823909999999999</v>
       </c>
       <c r="BA8" s="1">
-        <v>1446.390000</v>
+        <v>1446.39</v>
       </c>
       <c r="BB8" s="1">
-        <v>-366.510000</v>
+        <v>-366.51</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>6787.565263</v>
+        <v>6787.5652630000004</v>
       </c>
       <c r="BE8" s="1">
         <v>1.885435</v>
       </c>
       <c r="BF8" s="1">
-        <v>1530.300000</v>
+        <v>1530.3</v>
       </c>
       <c r="BG8" s="1">
-        <v>-618.003000</v>
+        <v>-618.00300000000004</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>6798.768863</v>
+        <v>6798.7688630000002</v>
       </c>
       <c r="BJ8" s="1">
         <v>1.888547</v>
       </c>
       <c r="BK8" s="1">
-        <v>1682.280000</v>
+        <v>1682.28</v>
       </c>
       <c r="BL8" s="1">
-        <v>-1071.020000</v>
+        <v>-1071.02</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>6809.742371</v>
+        <v>6809.7423710000003</v>
       </c>
       <c r="BO8" s="1">
-        <v>1.891595</v>
+        <v>1.8915949999999999</v>
       </c>
       <c r="BP8" s="1">
-        <v>1974.010000</v>
+        <v>1974.01</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-1860.190000</v>
+        <v>-1860.19</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>6820.139491</v>
+        <v>6820.1394909999999</v>
       </c>
       <c r="BT8" s="1">
-        <v>1.894483</v>
+        <v>1.8944829999999999</v>
       </c>
       <c r="BU8" s="1">
-        <v>2359.340000</v>
+        <v>2359.34</v>
       </c>
       <c r="BV8" s="1">
-        <v>-2773.180000</v>
+        <v>-2773.18</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>6830.905157</v>
+        <v>6830.9051570000001</v>
       </c>
       <c r="BY8" s="1">
-        <v>1.897474</v>
+        <v>1.8974740000000001</v>
       </c>
       <c r="BZ8" s="1">
-        <v>2846.230000</v>
+        <v>2846.23</v>
       </c>
       <c r="CA8" s="1">
-        <v>-3777.600000</v>
+        <v>-3777.6</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>6842.502119</v>
+        <v>6842.5021189999998</v>
       </c>
       <c r="CD8" s="1">
         <v>1.900695</v>
       </c>
       <c r="CE8" s="1">
-        <v>4282.820000</v>
+        <v>4282.82</v>
       </c>
       <c r="CF8" s="1">
-        <v>-6218.360000</v>
+        <v>-6218.36</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>6672.053431</v>
+        <v>6672.0534310000003</v>
       </c>
       <c r="B9" s="1">
         <v>1.853348</v>
       </c>
       <c r="C9" s="1">
-        <v>1246.640000</v>
+        <v>1246.6400000000001</v>
       </c>
       <c r="D9" s="1">
-        <v>-308.540000</v>
+        <v>-308.54000000000002</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>6681.802297</v>
+        <v>6681.8022970000002</v>
       </c>
       <c r="G9" s="1">
-        <v>1.856056</v>
+        <v>1.8560559999999999</v>
       </c>
       <c r="H9" s="1">
-        <v>1272.280000</v>
+        <v>1272.28</v>
       </c>
       <c r="I9" s="1">
-        <v>-265.860000</v>
+        <v>-265.86</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>6691.955196</v>
+        <v>6691.9551959999999</v>
       </c>
       <c r="L9" s="1">
         <v>1.858876</v>
       </c>
       <c r="M9" s="1">
-        <v>1306.670000</v>
+        <v>1306.67</v>
       </c>
       <c r="N9" s="1">
-        <v>-203.101000</v>
+        <v>-203.101</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>6702.129375</v>
+        <v>6702.1293750000004</v>
       </c>
       <c r="Q9" s="1">
-        <v>1.861703</v>
+        <v>1.8617030000000001</v>
       </c>
       <c r="R9" s="1">
-        <v>1318.340000</v>
+        <v>1318.34</v>
       </c>
       <c r="S9" s="1">
-        <v>-184.822000</v>
+        <v>-184.822</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>6712.960481</v>
+        <v>6712.9604810000001</v>
       </c>
       <c r="V9" s="1">
         <v>1.864711</v>
       </c>
       <c r="W9" s="1">
-        <v>1331.260000</v>
+        <v>1331.26</v>
       </c>
       <c r="X9" s="1">
-        <v>-171.234000</v>
+        <v>-171.23400000000001</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
         <v>6723.148306</v>
       </c>
       <c r="AA9" s="1">
-        <v>1.867541</v>
+        <v>1.8675409999999999</v>
       </c>
       <c r="AB9" s="1">
-        <v>1348.160000</v>
+        <v>1348.16</v>
       </c>
       <c r="AC9" s="1">
-        <v>-169.243000</v>
+        <v>-169.24299999999999</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>6734.032517</v>
+        <v>6734.0325169999996</v>
       </c>
       <c r="AF9" s="1">
         <v>1.870565</v>
       </c>
       <c r="AG9" s="1">
-        <v>1361.140000</v>
+        <v>1361.14</v>
       </c>
       <c r="AH9" s="1">
-        <v>-178.999000</v>
+        <v>-178.999</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>6744.496616</v>
+        <v>6744.4966160000004</v>
       </c>
       <c r="AK9" s="1">
-        <v>1.873471</v>
+        <v>1.8734710000000001</v>
       </c>
       <c r="AL9" s="1">
-        <v>1381.600000</v>
+        <v>1381.6</v>
       </c>
       <c r="AM9" s="1">
-        <v>-209.133000</v>
+        <v>-209.13300000000001</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>6755.205272</v>
+        <v>6755.2052720000002</v>
       </c>
       <c r="AP9" s="1">
-        <v>1.876446</v>
+        <v>1.8764460000000001</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1403.000000</v>
+        <v>1403</v>
       </c>
       <c r="AR9" s="1">
-        <v>-253.350000</v>
+        <v>-253.35</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>6766.215436</v>
+        <v>6766.2154360000004</v>
       </c>
       <c r="AU9" s="1">
-        <v>1.879504</v>
+        <v>1.8795040000000001</v>
       </c>
       <c r="AV9" s="1">
-        <v>1427.290000</v>
+        <v>1427.29</v>
       </c>
       <c r="AW9" s="1">
-        <v>-313.858000</v>
+        <v>-313.858</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>6777.029212</v>
+        <v>6777.0292120000004</v>
       </c>
       <c r="AZ9" s="1">
-        <v>1.882508</v>
+        <v>1.8825080000000001</v>
       </c>
       <c r="BA9" s="1">
-        <v>1446.350000</v>
+        <v>1446.35</v>
       </c>
       <c r="BB9" s="1">
-        <v>-366.523000</v>
+        <v>-366.52300000000002</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>6787.987325</v>
+        <v>6787.9873250000001</v>
       </c>
       <c r="BE9" s="1">
-        <v>1.885552</v>
+        <v>1.8855519999999999</v>
       </c>
       <c r="BF9" s="1">
-        <v>1530.250000</v>
+        <v>1530.25</v>
       </c>
       <c r="BG9" s="1">
-        <v>-617.995000</v>
+        <v>-617.995</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>6799.109118</v>
+        <v>6799.1091180000003</v>
       </c>
       <c r="BJ9" s="1">
         <v>1.888641</v>
       </c>
       <c r="BK9" s="1">
-        <v>1682.330000</v>
+        <v>1682.33</v>
       </c>
       <c r="BL9" s="1">
-        <v>-1071.070000</v>
+        <v>-1071.07</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>6810.075665</v>
+        <v>6810.0756650000003</v>
       </c>
       <c r="BO9" s="1">
         <v>1.891688</v>
       </c>
       <c r="BP9" s="1">
-        <v>1974.130000</v>
+        <v>1974.13</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-1860.050000</v>
+        <v>-1860.05</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>6820.565554</v>
+        <v>6820.5655539999998</v>
       </c>
       <c r="BT9" s="1">
-        <v>1.894602</v>
+        <v>1.8946019999999999</v>
       </c>
       <c r="BU9" s="1">
-        <v>2359.960000</v>
+        <v>2359.96</v>
       </c>
       <c r="BV9" s="1">
-        <v>-2772.330000</v>
+        <v>-2772.33</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>6831.352548</v>
+        <v>6831.3525479999998</v>
       </c>
       <c r="BY9" s="1">
-        <v>1.897598</v>
+        <v>1.8975979999999999</v>
       </c>
       <c r="BZ9" s="1">
-        <v>2845.730000</v>
+        <v>2845.73</v>
       </c>
       <c r="CA9" s="1">
-        <v>-3777.560000</v>
+        <v>-3777.56</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>6843.044740</v>
+        <v>6843.0447400000003</v>
       </c>
       <c r="CD9" s="1">
         <v>1.900846</v>
       </c>
       <c r="CE9" s="1">
-        <v>4288.340000</v>
+        <v>4288.34</v>
       </c>
       <c r="CF9" s="1">
-        <v>-6197.550000</v>
+        <v>-6197.55</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>6672.397686</v>
+        <v>6672.3976860000002</v>
       </c>
       <c r="B10" s="1">
-        <v>1.853444</v>
+        <v>1.8534440000000001</v>
       </c>
       <c r="C10" s="1">
-        <v>1246.120000</v>
+        <v>1246.1199999999999</v>
       </c>
       <c r="D10" s="1">
-        <v>-308.340000</v>
+        <v>-308.33999999999997</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>6682.148505</v>
+        <v>6682.1485050000001</v>
       </c>
       <c r="G10" s="1">
         <v>1.856152</v>
       </c>
       <c r="H10" s="1">
-        <v>1271.550000</v>
+        <v>1271.55</v>
       </c>
       <c r="I10" s="1">
-        <v>-265.271000</v>
+        <v>-265.27100000000002</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>6692.596758</v>
+        <v>6692.5967579999997</v>
       </c>
       <c r="L10" s="1">
-        <v>1.859055</v>
+        <v>1.8590549999999999</v>
       </c>
       <c r="M10" s="1">
-        <v>1306.490000</v>
+        <v>1306.49</v>
       </c>
       <c r="N10" s="1">
-        <v>-202.975000</v>
+        <v>-202.97499999999999</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>6702.781582</v>
+        <v>6702.7815819999996</v>
       </c>
       <c r="Q10" s="1">
-        <v>1.861884</v>
+        <v>1.8618840000000001</v>
       </c>
       <c r="R10" s="1">
-        <v>1318.440000</v>
+        <v>1318.44</v>
       </c>
       <c r="S10" s="1">
-        <v>-184.729000</v>
+        <v>-184.72900000000001</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>6713.336715</v>
+        <v>6713.3367150000004</v>
       </c>
       <c r="V10" s="1">
         <v>1.864816</v>
       </c>
       <c r="W10" s="1">
-        <v>1331.220000</v>
+        <v>1331.22</v>
       </c>
       <c r="X10" s="1">
-        <v>-171.330000</v>
+        <v>-171.33</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>6723.514391</v>
+        <v>6723.5143909999997</v>
       </c>
       <c r="AA10" s="1">
-        <v>1.867643</v>
+        <v>1.8676429999999999</v>
       </c>
       <c r="AB10" s="1">
-        <v>1348.390000</v>
+        <v>1348.39</v>
       </c>
       <c r="AC10" s="1">
-        <v>-169.023000</v>
+        <v>-169.023</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>6734.378228</v>
+        <v>6734.3782279999996</v>
       </c>
       <c r="AF10" s="1">
-        <v>1.870661</v>
+        <v>1.8706609999999999</v>
       </c>
       <c r="AG10" s="1">
-        <v>1361.150000</v>
+        <v>1361.15</v>
       </c>
       <c r="AH10" s="1">
-        <v>-178.963000</v>
+        <v>-178.96299999999999</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>6744.847814</v>
+        <v>6744.8478139999997</v>
       </c>
       <c r="AK10" s="1">
         <v>1.873569</v>
       </c>
       <c r="AL10" s="1">
-        <v>1381.550000</v>
+        <v>1381.55</v>
       </c>
       <c r="AM10" s="1">
-        <v>-209.144000</v>
+        <v>-209.14400000000001</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>6755.567818</v>
+        <v>6755.5678180000004</v>
       </c>
       <c r="AP10" s="1">
         <v>1.876547</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1403.020000</v>
+        <v>1403.02</v>
       </c>
       <c r="AR10" s="1">
-        <v>-253.375000</v>
+        <v>-253.375</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>6766.636043</v>
+        <v>6766.6360430000004</v>
       </c>
       <c r="AU10" s="1">
         <v>1.879621</v>
       </c>
       <c r="AV10" s="1">
-        <v>1427.280000</v>
+        <v>1427.28</v>
       </c>
       <c r="AW10" s="1">
-        <v>-313.887000</v>
+        <v>-313.887</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
         <v>6777.333259</v>
@@ -2687,330 +3103,330 @@
         <v>1.882593</v>
       </c>
       <c r="BA10" s="1">
-        <v>1446.400000</v>
+        <v>1446.4</v>
       </c>
       <c r="BB10" s="1">
-        <v>-366.495000</v>
+        <v>-366.495</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>6788.284926</v>
+        <v>6788.2849260000003</v>
       </c>
       <c r="BE10" s="1">
         <v>1.885635</v>
       </c>
       <c r="BF10" s="1">
-        <v>1530.280000</v>
+        <v>1530.28</v>
       </c>
       <c r="BG10" s="1">
-        <v>-617.973000</v>
+        <v>-617.97299999999996</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>6799.481614</v>
+        <v>6799.4816140000003</v>
       </c>
       <c r="BJ10" s="1">
-        <v>1.888745</v>
+        <v>1.8887449999999999</v>
       </c>
       <c r="BK10" s="1">
-        <v>1682.290000</v>
+        <v>1682.29</v>
       </c>
       <c r="BL10" s="1">
-        <v>-1071.060000</v>
+        <v>-1071.06</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>6810.456591</v>
+        <v>6810.4565910000001</v>
       </c>
       <c r="BO10" s="1">
-        <v>1.891793</v>
+        <v>1.8917930000000001</v>
       </c>
       <c r="BP10" s="1">
-        <v>1974.180000</v>
+        <v>1974.18</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-1859.990000</v>
+        <v>-1859.99</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>6820.977731</v>
+        <v>6820.9777309999999</v>
       </c>
       <c r="BT10" s="1">
-        <v>1.894716</v>
+        <v>1.8947160000000001</v>
       </c>
       <c r="BU10" s="1">
-        <v>2361.200000</v>
+        <v>2361.1999999999998</v>
       </c>
       <c r="BV10" s="1">
-        <v>-2772.810000</v>
+        <v>-2772.81</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>6831.774643</v>
+        <v>6831.7746429999997</v>
       </c>
       <c r="BY10" s="1">
         <v>1.897715</v>
       </c>
       <c r="BZ10" s="1">
-        <v>2846.140000</v>
+        <v>2846.14</v>
       </c>
       <c r="CA10" s="1">
-        <v>-3777.860000</v>
+        <v>-3777.86</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>6843.580916</v>
+        <v>6843.5809159999999</v>
       </c>
       <c r="CD10" s="1">
         <v>1.900995</v>
       </c>
       <c r="CE10" s="1">
-        <v>4270.880000</v>
+        <v>4270.88</v>
       </c>
       <c r="CF10" s="1">
-        <v>-6216.200000</v>
+        <v>-6216.2</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>6672.757788</v>
+        <v>6672.7577879999999</v>
       </c>
       <c r="B11" s="1">
-        <v>1.853544</v>
+        <v>1.8535440000000001</v>
       </c>
       <c r="C11" s="1">
-        <v>1246.580000</v>
+        <v>1246.58</v>
       </c>
       <c r="D11" s="1">
-        <v>-308.261000</v>
+        <v>-308.26100000000002</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>6682.803720</v>
+        <v>6682.8037199999999</v>
       </c>
       <c r="G11" s="1">
-        <v>1.856334</v>
+        <v>1.8563339999999999</v>
       </c>
       <c r="H11" s="1">
-        <v>1271.450000</v>
+        <v>1271.45</v>
       </c>
       <c r="I11" s="1">
-        <v>-266.018000</v>
+        <v>-266.01799999999997</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>6692.993034</v>
+        <v>6692.9930340000001</v>
       </c>
       <c r="L11" s="1">
         <v>1.859165</v>
       </c>
       <c r="M11" s="1">
-        <v>1306.900000</v>
+        <v>1306.9000000000001</v>
       </c>
       <c r="N11" s="1">
-        <v>-203.340000</v>
+        <v>-203.34</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>6703.188302</v>
+        <v>6703.1883019999996</v>
       </c>
       <c r="Q11" s="1">
-        <v>1.861997</v>
+        <v>1.8619969999999999</v>
       </c>
       <c r="R11" s="1">
-        <v>1318.410000</v>
+        <v>1318.41</v>
       </c>
       <c r="S11" s="1">
-        <v>-184.779000</v>
+        <v>-184.779</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>6713.680671</v>
+        <v>6713.6806710000001</v>
       </c>
       <c r="V11" s="1">
         <v>1.864911</v>
       </c>
       <c r="W11" s="1">
-        <v>1331.390000</v>
+        <v>1331.39</v>
       </c>
       <c r="X11" s="1">
-        <v>-171.163000</v>
+        <v>-171.16300000000001</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>6724.017827</v>
+        <v>6724.0178269999997</v>
       </c>
       <c r="AA11" s="1">
         <v>1.867783</v>
       </c>
       <c r="AB11" s="1">
-        <v>1348.260000</v>
+        <v>1348.26</v>
       </c>
       <c r="AC11" s="1">
-        <v>-169.028000</v>
+        <v>-169.02799999999999</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>6734.719972</v>
+        <v>6734.7199719999999</v>
       </c>
       <c r="AF11" s="1">
-        <v>1.870756</v>
+        <v>1.8707560000000001</v>
       </c>
       <c r="AG11" s="1">
-        <v>1361.080000</v>
+        <v>1361.08</v>
       </c>
       <c r="AH11" s="1">
-        <v>-178.960000</v>
+        <v>-178.96</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>6745.251558</v>
+        <v>6745.2515579999999</v>
       </c>
       <c r="AK11" s="1">
-        <v>1.873681</v>
+        <v>1.8736809999999999</v>
       </c>
       <c r="AL11" s="1">
-        <v>1381.570000</v>
+        <v>1381.57</v>
       </c>
       <c r="AM11" s="1">
-        <v>-209.139000</v>
+        <v>-209.13900000000001</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>6755.974077</v>
+        <v>6755.9740769999999</v>
       </c>
       <c r="AP11" s="1">
-        <v>1.876659</v>
+        <v>1.8766590000000001</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1402.980000</v>
+        <v>1402.98</v>
       </c>
       <c r="AR11" s="1">
-        <v>-253.374000</v>
+        <v>-253.374</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>6766.944553</v>
+        <v>6766.9445530000003</v>
       </c>
       <c r="AU11" s="1">
         <v>1.879707</v>
       </c>
       <c r="AV11" s="1">
-        <v>1427.300000</v>
+        <v>1427.3</v>
       </c>
       <c r="AW11" s="1">
-        <v>-313.872000</v>
+        <v>-313.87200000000001</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>6777.689884</v>
+        <v>6777.6898840000003</v>
       </c>
       <c r="AZ11" s="1">
         <v>1.882692</v>
       </c>
       <c r="BA11" s="1">
-        <v>1446.400000</v>
+        <v>1446.4</v>
       </c>
       <c r="BB11" s="1">
-        <v>-366.512000</v>
+        <v>-366.512</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>6788.645052</v>
+        <v>6788.6450519999999</v>
       </c>
       <c r="BE11" s="1">
-        <v>1.885735</v>
+        <v>1.8857349999999999</v>
       </c>
       <c r="BF11" s="1">
-        <v>1530.290000</v>
+        <v>1530.29</v>
       </c>
       <c r="BG11" s="1">
-        <v>-617.968000</v>
+        <v>-617.96799999999996</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>6799.880925</v>
+        <v>6799.8809250000004</v>
       </c>
       <c r="BJ11" s="1">
-        <v>1.888856</v>
+        <v>1.8888560000000001</v>
       </c>
       <c r="BK11" s="1">
-        <v>1682.280000</v>
+        <v>1682.28</v>
       </c>
       <c r="BL11" s="1">
-        <v>-1071.020000</v>
+        <v>-1071.02</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
         <v>6810.874726</v>
       </c>
       <c r="BO11" s="1">
-        <v>1.891910</v>
+        <v>1.89191</v>
       </c>
       <c r="BP11" s="1">
-        <v>1974.090000</v>
+        <v>1974.09</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-1859.940000</v>
+        <v>-1859.94</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>6821.411265</v>
+        <v>6821.4112649999997</v>
       </c>
       <c r="BT11" s="1">
         <v>1.894836</v>
       </c>
       <c r="BU11" s="1">
-        <v>2362.260000</v>
+        <v>2362.2600000000002</v>
       </c>
       <c r="BV11" s="1">
-        <v>-2772.610000</v>
+        <v>-2772.61</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
         <v>6832.196739</v>
@@ -3019,317 +3435,317 @@
         <v>1.897832</v>
       </c>
       <c r="BZ11" s="1">
-        <v>2845.860000</v>
+        <v>2845.86</v>
       </c>
       <c r="CA11" s="1">
-        <v>-3777.940000</v>
+        <v>-3777.94</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>6844.122547</v>
+        <v>6844.1225469999999</v>
       </c>
       <c r="CD11" s="1">
-        <v>1.901145</v>
+        <v>1.9011450000000001</v>
       </c>
       <c r="CE11" s="1">
-        <v>4291.470000</v>
+        <v>4291.47</v>
       </c>
       <c r="CF11" s="1">
-        <v>-6210.750000</v>
+        <v>-6210.75</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>6673.209606</v>
+        <v>6673.2096060000003</v>
       </c>
       <c r="B12" s="1">
         <v>1.853669</v>
       </c>
       <c r="C12" s="1">
-        <v>1246.610000</v>
+        <v>1246.6099999999999</v>
       </c>
       <c r="D12" s="1">
-        <v>-308.472000</v>
+        <v>-308.47199999999998</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>6683.179192</v>
+        <v>6683.1791919999996</v>
       </c>
       <c r="G12" s="1">
         <v>1.856439</v>
       </c>
       <c r="H12" s="1">
-        <v>1271.450000</v>
+        <v>1271.45</v>
       </c>
       <c r="I12" s="1">
-        <v>-265.158000</v>
+        <v>-265.15800000000002</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>6693.337756</v>
+        <v>6693.3377559999999</v>
       </c>
       <c r="L12" s="1">
-        <v>1.859260</v>
+        <v>1.8592599999999999</v>
       </c>
       <c r="M12" s="1">
-        <v>1306.860000</v>
+        <v>1306.8599999999999</v>
       </c>
       <c r="N12" s="1">
-        <v>-202.758000</v>
+        <v>-202.75800000000001</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>6703.522605</v>
+        <v>6703.5226050000001</v>
       </c>
       <c r="Q12" s="1">
-        <v>1.862090</v>
+        <v>1.86209</v>
       </c>
       <c r="R12" s="1">
-        <v>1318.420000</v>
+        <v>1318.42</v>
       </c>
       <c r="S12" s="1">
-        <v>-184.881000</v>
+        <v>-184.881</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>6714.028367</v>
+        <v>6714.0283669999999</v>
       </c>
       <c r="V12" s="1">
         <v>1.865008</v>
       </c>
       <c r="W12" s="1">
-        <v>1331.260000</v>
+        <v>1331.26</v>
       </c>
       <c r="X12" s="1">
-        <v>-171.315000</v>
+        <v>-171.315</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>6724.211730</v>
+        <v>6724.21173</v>
       </c>
       <c r="AA12" s="1">
         <v>1.867837</v>
       </c>
       <c r="AB12" s="1">
-        <v>1348.300000</v>
+        <v>1348.3</v>
       </c>
       <c r="AC12" s="1">
-        <v>-169.370000</v>
+        <v>-169.37</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>6735.132147</v>
+        <v>6735.1321470000003</v>
       </c>
       <c r="AF12" s="1">
-        <v>1.870870</v>
+        <v>1.87087</v>
       </c>
       <c r="AG12" s="1">
-        <v>1361.120000</v>
+        <v>1361.12</v>
       </c>
       <c r="AH12" s="1">
-        <v>-178.984000</v>
+        <v>-178.98400000000001</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>6745.552135</v>
+        <v>6745.5521349999999</v>
       </c>
       <c r="AK12" s="1">
         <v>1.873764</v>
       </c>
       <c r="AL12" s="1">
-        <v>1381.580000</v>
+        <v>1381.58</v>
       </c>
       <c r="AM12" s="1">
-        <v>-209.150000</v>
+        <v>-209.15</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>6756.289001</v>
+        <v>6756.2890010000001</v>
       </c>
       <c r="AP12" s="1">
-        <v>1.876747</v>
+        <v>1.8767469999999999</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1403.020000</v>
+        <v>1403.02</v>
       </c>
       <c r="AR12" s="1">
-        <v>-253.370000</v>
+        <v>-253.37</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
         <v>6767.308618</v>
       </c>
       <c r="AU12" s="1">
-        <v>1.879808</v>
+        <v>1.8798079999999999</v>
       </c>
       <c r="AV12" s="1">
-        <v>1427.290000</v>
+        <v>1427.29</v>
       </c>
       <c r="AW12" s="1">
-        <v>-313.880000</v>
+        <v>-313.88</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>6778.048491</v>
+        <v>6778.0484909999996</v>
       </c>
       <c r="AZ12" s="1">
-        <v>1.882791</v>
+        <v>1.8827910000000001</v>
       </c>
       <c r="BA12" s="1">
-        <v>1446.370000</v>
+        <v>1446.37</v>
       </c>
       <c r="BB12" s="1">
-        <v>-366.521000</v>
+        <v>-366.52100000000002</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>6789.007596</v>
+        <v>6789.0075960000004</v>
       </c>
       <c r="BE12" s="1">
-        <v>1.885835</v>
+        <v>1.8858349999999999</v>
       </c>
       <c r="BF12" s="1">
-        <v>1530.250000</v>
+        <v>1530.25</v>
       </c>
       <c r="BG12" s="1">
-        <v>-618.001000</v>
+        <v>-618.00099999999998</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>6800.631838</v>
+        <v>6800.6318380000002</v>
       </c>
       <c r="BJ12" s="1">
-        <v>1.889064</v>
+        <v>1.8890640000000001</v>
       </c>
       <c r="BK12" s="1">
-        <v>1682.250000</v>
+        <v>1682.25</v>
       </c>
       <c r="BL12" s="1">
-        <v>-1070.980000</v>
+        <v>-1070.98</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>6811.273007</v>
+        <v>6811.2730069999998</v>
       </c>
       <c r="BO12" s="1">
-        <v>1.892020</v>
+        <v>1.89202</v>
       </c>
       <c r="BP12" s="1">
-        <v>1974.040000</v>
+        <v>1974.04</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-1860.030000</v>
+        <v>-1860.03</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>6821.835808</v>
+        <v>6821.8358079999998</v>
       </c>
       <c r="BT12" s="1">
         <v>1.894954</v>
       </c>
       <c r="BU12" s="1">
-        <v>2362.740000</v>
+        <v>2362.7399999999998</v>
       </c>
       <c r="BV12" s="1">
-        <v>-2773.560000</v>
+        <v>-2773.56</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>6832.645651</v>
+        <v>6832.6456509999998</v>
       </c>
       <c r="BY12" s="1">
-        <v>1.897957</v>
+        <v>1.8979569999999999</v>
       </c>
       <c r="BZ12" s="1">
-        <v>2846.020000</v>
+        <v>2846.02</v>
       </c>
       <c r="CA12" s="1">
-        <v>-3777.170000</v>
+        <v>-3777.17</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>6844.663684</v>
+        <v>6844.6636840000001</v>
       </c>
       <c r="CD12" s="1">
         <v>1.901295</v>
       </c>
       <c r="CE12" s="1">
-        <v>4276.340000</v>
+        <v>4276.34</v>
       </c>
       <c r="CF12" s="1">
-        <v>-6199.060000</v>
+        <v>-6199.06</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>6673.464549</v>
+        <v>6673.4645490000003</v>
       </c>
       <c r="B13" s="1">
-        <v>1.853740</v>
+        <v>1.8537399999999999</v>
       </c>
       <c r="C13" s="1">
-        <v>1246.650000</v>
+        <v>1246.6500000000001</v>
       </c>
       <c r="D13" s="1">
-        <v>-308.216000</v>
+        <v>-308.21600000000001</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
         <v>6683.522919</v>
       </c>
       <c r="G13" s="1">
-        <v>1.856534</v>
+        <v>1.8565339999999999</v>
       </c>
       <c r="H13" s="1">
-        <v>1271.760000</v>
+        <v>1271.76</v>
       </c>
       <c r="I13" s="1">
-        <v>-266.291000</v>
+        <v>-266.291</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
         <v>6693.681482</v>
@@ -3338,557 +3754,557 @@
         <v>1.859356</v>
       </c>
       <c r="M13" s="1">
-        <v>1306.590000</v>
+        <v>1306.5899999999999</v>
       </c>
       <c r="N13" s="1">
-        <v>-203.284000</v>
+        <v>-203.28399999999999</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>6703.875756</v>
+        <v>6703.8757560000004</v>
       </c>
       <c r="Q13" s="1">
         <v>1.862188</v>
       </c>
       <c r="R13" s="1">
-        <v>1318.330000</v>
+        <v>1318.33</v>
       </c>
       <c r="S13" s="1">
-        <v>-184.832000</v>
+        <v>-184.83199999999999</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>6714.446030</v>
+        <v>6714.4460300000001</v>
       </c>
       <c r="V13" s="1">
         <v>1.865124</v>
       </c>
       <c r="W13" s="1">
-        <v>1331.330000</v>
+        <v>1331.33</v>
       </c>
       <c r="X13" s="1">
-        <v>-171.291000</v>
+        <v>-171.291</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
         <v>6724.908641</v>
       </c>
       <c r="AA13" s="1">
-        <v>1.868030</v>
+        <v>1.8680300000000001</v>
       </c>
       <c r="AB13" s="1">
-        <v>1348.190000</v>
+        <v>1348.19</v>
       </c>
       <c r="AC13" s="1">
-        <v>-169.197000</v>
+        <v>-169.197</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
         <v>6735.409412</v>
       </c>
       <c r="AF13" s="1">
-        <v>1.870947</v>
+        <v>1.8709469999999999</v>
       </c>
       <c r="AG13" s="1">
-        <v>1361.090000</v>
+        <v>1361.09</v>
       </c>
       <c r="AH13" s="1">
-        <v>-179.055000</v>
+        <v>-179.05500000000001</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>6745.897812</v>
+        <v>6745.8978120000002</v>
       </c>
       <c r="AK13" s="1">
         <v>1.873861</v>
       </c>
       <c r="AL13" s="1">
-        <v>1381.560000</v>
+        <v>1381.56</v>
       </c>
       <c r="AM13" s="1">
-        <v>-209.167000</v>
+        <v>-209.167</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>6756.648140</v>
+        <v>6756.6481400000002</v>
       </c>
       <c r="AP13" s="1">
-        <v>1.876847</v>
+        <v>1.8768469999999999</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1403.030000</v>
+        <v>1403.03</v>
       </c>
       <c r="AR13" s="1">
-        <v>-253.399000</v>
+        <v>-253.399</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>6767.672707</v>
+        <v>6767.6727069999997</v>
       </c>
       <c r="AU13" s="1">
-        <v>1.879909</v>
+        <v>1.8799090000000001</v>
       </c>
       <c r="AV13" s="1">
-        <v>1427.330000</v>
+        <v>1427.33</v>
       </c>
       <c r="AW13" s="1">
-        <v>-313.895000</v>
+        <v>-313.89499999999998</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>6778.767689</v>
+        <v>6778.7676890000002</v>
       </c>
       <c r="AZ13" s="1">
-        <v>1.882991</v>
+        <v>1.8829910000000001</v>
       </c>
       <c r="BA13" s="1">
-        <v>1446.390000</v>
+        <v>1446.39</v>
       </c>
       <c r="BB13" s="1">
-        <v>-366.500000</v>
+        <v>-366.5</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>6789.728283</v>
+        <v>6789.7282830000004</v>
       </c>
       <c r="BE13" s="1">
         <v>1.886036</v>
       </c>
       <c r="BF13" s="1">
-        <v>1530.300000</v>
+        <v>1530.3</v>
       </c>
       <c r="BG13" s="1">
-        <v>-617.962000</v>
+        <v>-617.96199999999999</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>6801.035084</v>
+        <v>6801.0350840000001</v>
       </c>
       <c r="BJ13" s="1">
         <v>1.889176</v>
       </c>
       <c r="BK13" s="1">
-        <v>1682.300000</v>
+        <v>1682.3</v>
       </c>
       <c r="BL13" s="1">
-        <v>-1071.100000</v>
+        <v>-1071.0999999999999</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>6811.694747</v>
+        <v>6811.6947469999996</v>
       </c>
       <c r="BO13" s="1">
         <v>1.892137</v>
       </c>
       <c r="BP13" s="1">
-        <v>1973.960000</v>
+        <v>1973.96</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-1860.030000</v>
+        <v>-1860.03</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>6822.249969</v>
+        <v>6822.2499690000004</v>
       </c>
       <c r="BT13" s="1">
-        <v>1.895069</v>
+        <v>1.8950689999999999</v>
       </c>
       <c r="BU13" s="1">
-        <v>2363.270000</v>
+        <v>2363.27</v>
       </c>
       <c r="BV13" s="1">
-        <v>-2774.490000</v>
+        <v>-2774.49</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>6833.383196</v>
+        <v>6833.3831959999998</v>
       </c>
       <c r="BY13" s="1">
-        <v>1.898162</v>
+        <v>1.8981619999999999</v>
       </c>
       <c r="BZ13" s="1">
-        <v>2845.530000</v>
+        <v>2845.53</v>
       </c>
       <c r="CA13" s="1">
-        <v>-3776.630000</v>
+        <v>-3776.63</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>6845.203827</v>
+        <v>6845.2038270000003</v>
       </c>
       <c r="CD13" s="1">
         <v>1.901446</v>
       </c>
       <c r="CE13" s="1">
-        <v>4279.030000</v>
+        <v>4279.03</v>
       </c>
       <c r="CF13" s="1">
-        <v>-6218.980000</v>
+        <v>-6218.98</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>6673.804342</v>
+        <v>6673.8043420000004</v>
       </c>
       <c r="B14" s="1">
-        <v>1.853835</v>
+        <v>1.8538349999999999</v>
       </c>
       <c r="C14" s="1">
-        <v>1246.400000</v>
+        <v>1246.4000000000001</v>
       </c>
       <c r="D14" s="1">
-        <v>-308.468000</v>
+        <v>-308.46800000000002</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>6683.872103</v>
+        <v>6683.8721029999997</v>
       </c>
       <c r="G14" s="1">
-        <v>1.856631</v>
+        <v>1.8566309999999999</v>
       </c>
       <c r="H14" s="1">
-        <v>1271.440000</v>
+        <v>1271.44</v>
       </c>
       <c r="I14" s="1">
-        <v>-266.082000</v>
+        <v>-266.08199999999999</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>6694.094185</v>
+        <v>6694.0941849999999</v>
       </c>
       <c r="L14" s="1">
-        <v>1.859471</v>
+        <v>1.8594710000000001</v>
       </c>
       <c r="M14" s="1">
-        <v>1306.860000</v>
+        <v>1306.8599999999999</v>
       </c>
       <c r="N14" s="1">
-        <v>-203.417000</v>
+        <v>-203.417</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>6704.303308</v>
+        <v>6704.3033079999996</v>
       </c>
       <c r="Q14" s="1">
         <v>1.862306</v>
       </c>
       <c r="R14" s="1">
-        <v>1318.280000</v>
+        <v>1318.28</v>
       </c>
       <c r="S14" s="1">
-        <v>-184.802000</v>
+        <v>-184.80199999999999</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>6714.723790</v>
+        <v>6714.72379</v>
       </c>
       <c r="V14" s="1">
-        <v>1.865201</v>
+        <v>1.8652010000000001</v>
       </c>
       <c r="W14" s="1">
-        <v>1331.280000</v>
+        <v>1331.28</v>
       </c>
       <c r="X14" s="1">
-        <v>-171.170000</v>
+        <v>-171.17</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>6725.257296</v>
+        <v>6725.2572959999998</v>
       </c>
       <c r="AA14" s="1">
-        <v>1.868127</v>
+        <v>1.8681270000000001</v>
       </c>
       <c r="AB14" s="1">
-        <v>1348.260000</v>
+        <v>1348.26</v>
       </c>
       <c r="AC14" s="1">
-        <v>-169.044000</v>
+        <v>-169.04400000000001</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>6735.753170</v>
+        <v>6735.75317</v>
       </c>
       <c r="AF14" s="1">
         <v>1.871043</v>
       </c>
       <c r="AG14" s="1">
-        <v>1361.170000</v>
+        <v>1361.17</v>
       </c>
       <c r="AH14" s="1">
-        <v>-179.008000</v>
+        <v>-179.00800000000001</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>6746.246997</v>
+        <v>6746.2469970000002</v>
       </c>
       <c r="AK14" s="1">
-        <v>1.873957</v>
+        <v>1.8739570000000001</v>
       </c>
       <c r="AL14" s="1">
-        <v>1381.540000</v>
+        <v>1381.54</v>
       </c>
       <c r="AM14" s="1">
-        <v>-209.114000</v>
+        <v>-209.114</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>6757.008200</v>
+        <v>6757.0082000000002</v>
       </c>
       <c r="AP14" s="1">
-        <v>1.876947</v>
+        <v>1.8769469999999999</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1403.000000</v>
+        <v>1403</v>
       </c>
       <c r="AR14" s="1">
-        <v>-253.335000</v>
+        <v>-253.33500000000001</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>6768.409271</v>
+        <v>6768.4092710000004</v>
       </c>
       <c r="AU14" s="1">
-        <v>1.880114</v>
+        <v>1.8801140000000001</v>
       </c>
       <c r="AV14" s="1">
-        <v>1427.270000</v>
+        <v>1427.27</v>
       </c>
       <c r="AW14" s="1">
-        <v>-313.895000</v>
+        <v>-313.89499999999998</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>6779.126793</v>
+        <v>6779.1267930000004</v>
       </c>
       <c r="AZ14" s="1">
-        <v>1.883091</v>
+        <v>1.8830910000000001</v>
       </c>
       <c r="BA14" s="1">
-        <v>1446.370000</v>
+        <v>1446.37</v>
       </c>
       <c r="BB14" s="1">
-        <v>-366.483000</v>
+        <v>-366.483</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>6790.091865</v>
+        <v>6790.0918650000003</v>
       </c>
       <c r="BE14" s="1">
         <v>1.886137</v>
       </c>
       <c r="BF14" s="1">
-        <v>1530.290000</v>
+        <v>1530.29</v>
       </c>
       <c r="BG14" s="1">
-        <v>-617.971000</v>
+        <v>-617.971</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>6801.408108</v>
+        <v>6801.4081079999996</v>
       </c>
       <c r="BJ14" s="1">
-        <v>1.889280</v>
+        <v>1.8892800000000001</v>
       </c>
       <c r="BK14" s="1">
-        <v>1682.330000</v>
+        <v>1682.33</v>
       </c>
       <c r="BL14" s="1">
-        <v>-1071.030000</v>
+        <v>-1071.03</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>6812.399422</v>
+        <v>6812.3994220000004</v>
       </c>
       <c r="BO14" s="1">
         <v>1.892333</v>
       </c>
       <c r="BP14" s="1">
-        <v>1974.190000</v>
+        <v>1974.19</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-1859.900000</v>
+        <v>-1859.9</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>6822.985535</v>
+        <v>6822.9855349999998</v>
       </c>
       <c r="BT14" s="1">
-        <v>1.895274</v>
+        <v>1.8952739999999999</v>
       </c>
       <c r="BU14" s="1">
-        <v>2362.840000</v>
+        <v>2362.84</v>
       </c>
       <c r="BV14" s="1">
-        <v>-2775.280000</v>
+        <v>-2775.28</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>6833.512129</v>
+        <v>6833.5121289999997</v>
       </c>
       <c r="BY14" s="1">
-        <v>1.898198</v>
+        <v>1.8981980000000001</v>
       </c>
       <c r="BZ14" s="1">
-        <v>2844.890000</v>
+        <v>2844.89</v>
       </c>
       <c r="CA14" s="1">
-        <v>-3777.690000</v>
+        <v>-3777.69</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>6845.742514</v>
+        <v>6845.7425139999996</v>
       </c>
       <c r="CD14" s="1">
-        <v>1.901595</v>
+        <v>1.9015949999999999</v>
       </c>
       <c r="CE14" s="1">
-        <v>4292.580000</v>
+        <v>4292.58</v>
       </c>
       <c r="CF14" s="1">
-        <v>-6200.360000</v>
+        <v>-6200.36</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>6674.227434</v>
+        <v>6674.2274340000004</v>
       </c>
       <c r="B15" s="1">
         <v>1.853952</v>
       </c>
       <c r="C15" s="1">
-        <v>1246.460000</v>
+        <v>1246.46</v>
       </c>
       <c r="D15" s="1">
-        <v>-308.718000</v>
+        <v>-308.71800000000002</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>6684.283783</v>
+        <v>6684.2837829999999</v>
       </c>
       <c r="G15" s="1">
-        <v>1.856745</v>
+        <v>1.8567450000000001</v>
       </c>
       <c r="H15" s="1">
-        <v>1271.900000</v>
+        <v>1271.9000000000001</v>
       </c>
       <c r="I15" s="1">
-        <v>-266.011000</v>
+        <v>-266.01100000000002</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>6694.374394</v>
+        <v>6694.3743940000004</v>
       </c>
       <c r="L15" s="1">
         <v>1.859548</v>
       </c>
       <c r="M15" s="1">
-        <v>1306.780000</v>
+        <v>1306.78</v>
       </c>
       <c r="N15" s="1">
-        <v>-203.103000</v>
+        <v>-203.10300000000001</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>6704.581565</v>
+        <v>6704.5815650000004</v>
       </c>
       <c r="Q15" s="1">
         <v>1.862384</v>
       </c>
       <c r="R15" s="1">
-        <v>1318.360000</v>
+        <v>1318.36</v>
       </c>
       <c r="S15" s="1">
-        <v>-184.794000</v>
+        <v>-184.79400000000001</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>6715.069001</v>
+        <v>6715.0690009999998</v>
       </c>
       <c r="V15" s="1">
         <v>1.865297</v>
       </c>
       <c r="W15" s="1">
-        <v>1331.210000</v>
+        <v>1331.21</v>
       </c>
       <c r="X15" s="1">
-        <v>-171.216000</v>
+        <v>-171.21600000000001</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
         <v>6725.603008</v>
@@ -3897,438 +4313,438 @@
         <v>1.868223</v>
       </c>
       <c r="AB15" s="1">
-        <v>1348.350000</v>
+        <v>1348.35</v>
       </c>
       <c r="AC15" s="1">
-        <v>-169.116000</v>
+        <v>-169.11600000000001</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>6736.098386</v>
+        <v>6736.0983859999997</v>
       </c>
       <c r="AF15" s="1">
         <v>1.871138</v>
       </c>
       <c r="AG15" s="1">
-        <v>1361.110000</v>
+        <v>1361.11</v>
       </c>
       <c r="AH15" s="1">
-        <v>-178.942000</v>
+        <v>-178.94200000000001</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>6746.944372</v>
+        <v>6746.9443719999999</v>
       </c>
       <c r="AK15" s="1">
-        <v>1.874151</v>
+        <v>1.8741509999999999</v>
       </c>
       <c r="AL15" s="1">
-        <v>1381.550000</v>
+        <v>1381.55</v>
       </c>
       <c r="AM15" s="1">
-        <v>-209.141000</v>
+        <v>-209.14099999999999</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>6757.737350</v>
+        <v>6757.7373500000003</v>
       </c>
       <c r="AP15" s="1">
         <v>1.877149</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1402.980000</v>
+        <v>1402.98</v>
       </c>
       <c r="AR15" s="1">
-        <v>-253.345000</v>
+        <v>-253.345</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>6768.789212</v>
+        <v>6768.7892119999997</v>
       </c>
       <c r="AU15" s="1">
-        <v>1.880219</v>
+        <v>1.8802190000000001</v>
       </c>
       <c r="AV15" s="1">
-        <v>1427.270000</v>
+        <v>1427.27</v>
       </c>
       <c r="AW15" s="1">
-        <v>-313.865000</v>
+        <v>-313.86500000000001</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>6779.485433</v>
+        <v>6779.4854329999998</v>
       </c>
       <c r="AZ15" s="1">
-        <v>1.883190</v>
+        <v>1.8831899999999999</v>
       </c>
       <c r="BA15" s="1">
-        <v>1446.340000</v>
+        <v>1446.34</v>
       </c>
       <c r="BB15" s="1">
-        <v>-366.496000</v>
+        <v>-366.49599999999998</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>6790.452939</v>
+        <v>6790.4529389999998</v>
       </c>
       <c r="BE15" s="1">
-        <v>1.886237</v>
+        <v>1.8862369999999999</v>
       </c>
       <c r="BF15" s="1">
-        <v>1530.260000</v>
+        <v>1530.26</v>
       </c>
       <c r="BG15" s="1">
-        <v>-617.987000</v>
+        <v>-617.98699999999997</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>6802.085114</v>
+        <v>6802.0851140000004</v>
       </c>
       <c r="BJ15" s="1">
-        <v>1.889468</v>
+        <v>1.8894679999999999</v>
       </c>
       <c r="BK15" s="1">
-        <v>1682.290000</v>
+        <v>1682.29</v>
       </c>
       <c r="BL15" s="1">
-        <v>-1070.940000</v>
+        <v>-1070.94</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>6812.529902</v>
+        <v>6812.5299020000002</v>
       </c>
       <c r="BO15" s="1">
         <v>1.892369</v>
       </c>
       <c r="BP15" s="1">
-        <v>1973.910000</v>
+        <v>1973.91</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-1860.060000</v>
+        <v>-1860.06</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>6823.107588</v>
+        <v>6823.1075879999999</v>
       </c>
       <c r="BT15" s="1">
         <v>1.895308</v>
       </c>
       <c r="BU15" s="1">
-        <v>2362.540000</v>
+        <v>2362.54</v>
       </c>
       <c r="BV15" s="1">
-        <v>-2776.340000</v>
+        <v>-2776.34</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>6833.937729</v>
+        <v>6833.9377290000002</v>
       </c>
       <c r="BY15" s="1">
-        <v>1.898316</v>
+        <v>1.8983159999999999</v>
       </c>
       <c r="BZ15" s="1">
-        <v>2845.790000</v>
+        <v>2845.79</v>
       </c>
       <c r="CA15" s="1">
-        <v>-3777.850000</v>
+        <v>-3777.85</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>6846.281633</v>
+        <v>6846.2816329999996</v>
       </c>
       <c r="CD15" s="1">
         <v>1.901745</v>
       </c>
       <c r="CE15" s="1">
-        <v>4268.850000</v>
+        <v>4268.8500000000004</v>
       </c>
       <c r="CF15" s="1">
-        <v>-6210.540000</v>
+        <v>-6210.54</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>6674.503206</v>
+        <v>6674.5032060000003</v>
       </c>
       <c r="B16" s="1">
-        <v>1.854029</v>
+        <v>1.8540289999999999</v>
       </c>
       <c r="C16" s="1">
-        <v>1246.330000</v>
+        <v>1246.33</v>
       </c>
       <c r="D16" s="1">
-        <v>-308.682000</v>
+        <v>-308.68200000000002</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>6684.561543</v>
+        <v>6684.5615429999998</v>
       </c>
       <c r="G16" s="1">
-        <v>1.856823</v>
+        <v>1.8568229999999999</v>
       </c>
       <c r="H16" s="1">
-        <v>1271.940000</v>
+        <v>1271.94</v>
       </c>
       <c r="I16" s="1">
-        <v>-266.654000</v>
+        <v>-266.654</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>6694.721097</v>
+        <v>6694.7210969999996</v>
       </c>
       <c r="L16" s="1">
         <v>1.859645</v>
       </c>
       <c r="M16" s="1">
-        <v>1306.840000</v>
+        <v>1306.8399999999999</v>
       </c>
       <c r="N16" s="1">
-        <v>-203.092000</v>
+        <v>-203.09200000000001</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>6704.928764</v>
+        <v>6704.9287640000002</v>
       </c>
       <c r="Q16" s="1">
-        <v>1.862480</v>
+        <v>1.8624799999999999</v>
       </c>
       <c r="R16" s="1">
-        <v>1318.400000</v>
+        <v>1318.4</v>
       </c>
       <c r="S16" s="1">
-        <v>-184.796000</v>
+        <v>-184.79599999999999</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>6715.413229</v>
+        <v>6715.4132289999998</v>
       </c>
       <c r="V16" s="1">
-        <v>1.865393</v>
+        <v>1.8653930000000001</v>
       </c>
       <c r="W16" s="1">
-        <v>1331.160000</v>
+        <v>1331.16</v>
       </c>
       <c r="X16" s="1">
-        <v>-171.270000</v>
+        <v>-171.27</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>6726.302864</v>
+        <v>6726.3028640000002</v>
       </c>
       <c r="AA16" s="1">
         <v>1.868417</v>
       </c>
       <c r="AB16" s="1">
-        <v>1348.250000</v>
+        <v>1348.25</v>
       </c>
       <c r="AC16" s="1">
-        <v>-169.138000</v>
+        <v>-169.13800000000001</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>6736.783825</v>
+        <v>6736.7838250000004</v>
       </c>
       <c r="AF16" s="1">
         <v>1.871329</v>
       </c>
       <c r="AG16" s="1">
-        <v>1361.150000</v>
+        <v>1361.15</v>
       </c>
       <c r="AH16" s="1">
-        <v>-179.012000</v>
+        <v>-179.012</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>6747.290083</v>
+        <v>6747.2900829999999</v>
       </c>
       <c r="AK16" s="1">
         <v>1.874247</v>
       </c>
       <c r="AL16" s="1">
-        <v>1381.590000</v>
+        <v>1381.59</v>
       </c>
       <c r="AM16" s="1">
-        <v>-209.119000</v>
+        <v>-209.119</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>6758.114772</v>
+        <v>6758.1147719999999</v>
       </c>
       <c r="AP16" s="1">
         <v>1.877254</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1403.010000</v>
+        <v>1403.01</v>
       </c>
       <c r="AR16" s="1">
-        <v>-253.337000</v>
+        <v>-253.33699999999999</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>6769.156214</v>
+        <v>6769.1562139999996</v>
       </c>
       <c r="AU16" s="1">
-        <v>1.880321</v>
+        <v>1.8803209999999999</v>
       </c>
       <c r="AV16" s="1">
-        <v>1427.300000</v>
+        <v>1427.3</v>
       </c>
       <c r="AW16" s="1">
-        <v>-313.856000</v>
+        <v>-313.85599999999999</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>6780.148092</v>
+        <v>6780.1480920000004</v>
       </c>
       <c r="AZ16" s="1">
-        <v>1.883374</v>
+        <v>1.8833740000000001</v>
       </c>
       <c r="BA16" s="1">
-        <v>1446.380000</v>
+        <v>1446.38</v>
       </c>
       <c r="BB16" s="1">
-        <v>-366.495000</v>
+        <v>-366.495</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>6791.134441</v>
+        <v>6791.1344410000002</v>
       </c>
       <c r="BE16" s="1">
-        <v>1.886426</v>
+        <v>1.8864259999999999</v>
       </c>
       <c r="BF16" s="1">
-        <v>1530.260000</v>
+        <v>1530.26</v>
       </c>
       <c r="BG16" s="1">
-        <v>-617.964000</v>
+        <v>-617.96400000000006</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>6802.195470</v>
+        <v>6802.1954699999997</v>
       </c>
       <c r="BJ16" s="1">
         <v>1.889499</v>
       </c>
       <c r="BK16" s="1">
-        <v>1682.250000</v>
+        <v>1682.25</v>
       </c>
       <c r="BL16" s="1">
-        <v>-1070.940000</v>
+        <v>-1070.94</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>6812.938604</v>
+        <v>6812.9386039999999</v>
       </c>
       <c r="BO16" s="1">
-        <v>1.892483</v>
+        <v>1.8924829999999999</v>
       </c>
       <c r="BP16" s="1">
-        <v>1974.000000</v>
+        <v>1974</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-1859.770000</v>
+        <v>-1859.77</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>6823.520718</v>
+        <v>6823.5207179999998</v>
       </c>
       <c r="BT16" s="1">
-        <v>1.895422</v>
+        <v>1.8954219999999999</v>
       </c>
       <c r="BU16" s="1">
-        <v>2361.530000</v>
+        <v>2361.5300000000002</v>
       </c>
       <c r="BV16" s="1">
-        <v>-2776.860000</v>
+        <v>-2776.86</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>6834.350368</v>
+        <v>6834.3503680000003</v>
       </c>
       <c r="BY16" s="1">
         <v>1.898431</v>
       </c>
       <c r="BZ16" s="1">
-        <v>2845.570000</v>
+        <v>2845.57</v>
       </c>
       <c r="CA16" s="1">
-        <v>-3777.470000</v>
+        <v>-3777.47</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>6846.820785</v>
+        <v>6846.8207849999999</v>
       </c>
       <c r="CD16" s="1">
-        <v>1.901895</v>
+        <v>1.9018949999999999</v>
       </c>
       <c r="CE16" s="1">
-        <v>4289.150000</v>
+        <v>4289.1499999999996</v>
       </c>
       <c r="CF16" s="1">
-        <v>-6213.180000</v>
+        <v>-6213.18</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
         <v>6674.848884</v>
       </c>
@@ -4336,73 +4752,73 @@
         <v>1.854125</v>
       </c>
       <c r="C17" s="1">
-        <v>1246.350000</v>
+        <v>1246.3499999999999</v>
       </c>
       <c r="D17" s="1">
-        <v>-308.880000</v>
+        <v>-308.88</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>6684.905270</v>
+        <v>6684.9052700000002</v>
       </c>
       <c r="G17" s="1">
-        <v>1.856918</v>
+        <v>1.8569180000000001</v>
       </c>
       <c r="H17" s="1">
-        <v>1271.280000</v>
+        <v>1271.28</v>
       </c>
       <c r="I17" s="1">
-        <v>-266.483000</v>
+        <v>-266.483</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>6695.063864</v>
+        <v>6695.0638639999997</v>
       </c>
       <c r="L17" s="1">
-        <v>1.859740</v>
+        <v>1.8597399999999999</v>
       </c>
       <c r="M17" s="1">
-        <v>1306.380000</v>
+        <v>1306.3800000000001</v>
       </c>
       <c r="N17" s="1">
-        <v>-203.063000</v>
+        <v>-203.06299999999999</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>6705.277978</v>
+        <v>6705.2779780000001</v>
       </c>
       <c r="Q17" s="1">
-        <v>1.862577</v>
+        <v>1.8625769999999999</v>
       </c>
       <c r="R17" s="1">
-        <v>1318.380000</v>
+        <v>1318.38</v>
       </c>
       <c r="S17" s="1">
-        <v>-184.828000</v>
+        <v>-184.828</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>6716.099165</v>
+        <v>6716.0991649999996</v>
       </c>
       <c r="V17" s="1">
         <v>1.865583</v>
       </c>
       <c r="W17" s="1">
-        <v>1331.240000</v>
+        <v>1331.24</v>
       </c>
       <c r="X17" s="1">
-        <v>-171.241000</v>
+        <v>-171.24100000000001</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
         <v>6726.649566</v>
@@ -4411,677 +4827,677 @@
         <v>1.868514</v>
       </c>
       <c r="AB17" s="1">
-        <v>1348.460000</v>
+        <v>1348.46</v>
       </c>
       <c r="AC17" s="1">
-        <v>-169.125000</v>
+        <v>-169.125</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>6737.128048</v>
+        <v>6737.1280479999996</v>
       </c>
       <c r="AF17" s="1">
         <v>1.871424</v>
       </c>
       <c r="AG17" s="1">
-        <v>1361.160000</v>
+        <v>1361.16</v>
       </c>
       <c r="AH17" s="1">
-        <v>-178.990000</v>
+        <v>-178.99</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>6747.641747</v>
+        <v>6747.6417469999997</v>
       </c>
       <c r="AK17" s="1">
-        <v>1.874345</v>
+        <v>1.8743449999999999</v>
       </c>
       <c r="AL17" s="1">
-        <v>1381.570000</v>
+        <v>1381.57</v>
       </c>
       <c r="AM17" s="1">
-        <v>-209.161000</v>
+        <v>-209.161</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>6758.806693</v>
+        <v>6758.8066930000005</v>
       </c>
       <c r="AP17" s="1">
-        <v>1.877446</v>
+        <v>1.8774459999999999</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1402.990000</v>
+        <v>1402.99</v>
       </c>
       <c r="AR17" s="1">
-        <v>-253.334000</v>
+        <v>-253.334</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>6769.830773</v>
+        <v>6769.8307729999997</v>
       </c>
       <c r="AU17" s="1">
         <v>1.880509</v>
       </c>
       <c r="AV17" s="1">
-        <v>1427.290000</v>
+        <v>1427.29</v>
       </c>
       <c r="AW17" s="1">
-        <v>-313.854000</v>
+        <v>-313.85399999999998</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>6780.562215</v>
+        <v>6780.5622149999999</v>
       </c>
       <c r="AZ17" s="1">
-        <v>1.883490</v>
+        <v>1.8834900000000001</v>
       </c>
       <c r="BA17" s="1">
-        <v>1446.380000</v>
+        <v>1446.38</v>
       </c>
       <c r="BB17" s="1">
-        <v>-366.483000</v>
+        <v>-366.483</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>6791.566989</v>
+        <v>6791.5669889999999</v>
       </c>
       <c r="BE17" s="1">
-        <v>1.886546</v>
+        <v>1.8865460000000001</v>
       </c>
       <c r="BF17" s="1">
-        <v>1530.270000</v>
+        <v>1530.27</v>
       </c>
       <c r="BG17" s="1">
-        <v>-617.924000</v>
+        <v>-617.92399999999998</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>6802.558826</v>
+        <v>6802.5588260000004</v>
       </c>
       <c r="BJ17" s="1">
-        <v>1.889600</v>
+        <v>1.8895999999999999</v>
       </c>
       <c r="BK17" s="1">
-        <v>1682.220000</v>
+        <v>1682.22</v>
       </c>
       <c r="BL17" s="1">
-        <v>-1071.010000</v>
+        <v>-1071.01</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>6813.334380</v>
+        <v>6813.3343800000002</v>
       </c>
       <c r="BO17" s="1">
         <v>1.892593</v>
       </c>
       <c r="BP17" s="1">
-        <v>1974.070000</v>
+        <v>1974.07</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-1859.820000</v>
+        <v>-1859.82</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>6823.951246</v>
+        <v>6823.9512459999996</v>
       </c>
       <c r="BT17" s="1">
-        <v>1.895542</v>
+        <v>1.8955420000000001</v>
       </c>
       <c r="BU17" s="1">
-        <v>2360.670000</v>
+        <v>2360.67</v>
       </c>
       <c r="BV17" s="1">
-        <v>-2776.990000</v>
+        <v>-2776.99</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>6834.809168</v>
+        <v>6834.8091679999998</v>
       </c>
       <c r="BY17" s="1">
         <v>1.898558</v>
       </c>
       <c r="BZ17" s="1">
-        <v>2845.060000</v>
+        <v>2845.06</v>
       </c>
       <c r="CA17" s="1">
-        <v>-3777.240000</v>
+        <v>-3777.24</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>6847.361950</v>
+        <v>6847.3619500000004</v>
       </c>
       <c r="CD17" s="1">
         <v>1.902045</v>
       </c>
       <c r="CE17" s="1">
-        <v>4280.700000</v>
+        <v>4280.7</v>
       </c>
       <c r="CF17" s="1">
-        <v>-6196.460000</v>
+        <v>-6196.46</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>6675.188162</v>
+        <v>6675.1881620000004</v>
       </c>
       <c r="B18" s="1">
-        <v>1.854219</v>
+        <v>1.8542190000000001</v>
       </c>
       <c r="C18" s="1">
-        <v>1246.220000</v>
+        <v>1246.22</v>
       </c>
       <c r="D18" s="1">
-        <v>-308.541000</v>
+        <v>-308.541</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>6685.251509</v>
+        <v>6685.2515089999997</v>
       </c>
       <c r="G18" s="1">
-        <v>1.857014</v>
+        <v>1.8570139999999999</v>
       </c>
       <c r="H18" s="1">
-        <v>1271.940000</v>
+        <v>1271.94</v>
       </c>
       <c r="I18" s="1">
-        <v>-265.647000</v>
+        <v>-265.64699999999999</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>6695.755784</v>
+        <v>6695.7557839999999</v>
       </c>
       <c r="L18" s="1">
-        <v>1.859932</v>
+        <v>1.8599319999999999</v>
       </c>
       <c r="M18" s="1">
-        <v>1306.700000</v>
+        <v>1306.7</v>
       </c>
       <c r="N18" s="1">
-        <v>-203.113000</v>
+        <v>-203.113</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>6705.974368</v>
+        <v>6705.9743680000001</v>
       </c>
       <c r="Q18" s="1">
         <v>1.862771</v>
       </c>
       <c r="R18" s="1">
-        <v>1318.340000</v>
+        <v>1318.34</v>
       </c>
       <c r="S18" s="1">
-        <v>-184.904000</v>
+        <v>-184.904</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>6716.441405</v>
+        <v>6716.4414049999996</v>
       </c>
       <c r="V18" s="1">
-        <v>1.865678</v>
+        <v>1.8656779999999999</v>
       </c>
       <c r="W18" s="1">
-        <v>1331.200000</v>
+        <v>1331.2</v>
       </c>
       <c r="X18" s="1">
-        <v>-171.197000</v>
+        <v>-171.197</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>6727.001236</v>
+        <v>6727.0012360000001</v>
       </c>
       <c r="AA18" s="1">
         <v>1.868611</v>
       </c>
       <c r="AB18" s="1">
-        <v>1348.260000</v>
+        <v>1348.26</v>
       </c>
       <c r="AC18" s="1">
-        <v>-169.109000</v>
+        <v>-169.10900000000001</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>6737.471777</v>
+        <v>6737.4717769999997</v>
       </c>
       <c r="AF18" s="1">
-        <v>1.871520</v>
+        <v>1.8715200000000001</v>
       </c>
       <c r="AG18" s="1">
-        <v>1361.120000</v>
+        <v>1361.12</v>
       </c>
       <c r="AH18" s="1">
-        <v>-178.933000</v>
+        <v>-178.93299999999999</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>6748.288049</v>
+        <v>6748.2880489999998</v>
       </c>
       <c r="AK18" s="1">
-        <v>1.874524</v>
+        <v>1.8745240000000001</v>
       </c>
       <c r="AL18" s="1">
-        <v>1381.560000</v>
+        <v>1381.56</v>
       </c>
       <c r="AM18" s="1">
-        <v>-209.103000</v>
+        <v>-209.10300000000001</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>6759.222867</v>
+        <v>6759.2228670000004</v>
       </c>
       <c r="AP18" s="1">
         <v>1.877562</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1403.030000</v>
+        <v>1403.03</v>
       </c>
       <c r="AR18" s="1">
-        <v>-253.353000</v>
+        <v>-253.35300000000001</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>6770.282133</v>
+        <v>6770.2821329999997</v>
       </c>
       <c r="AU18" s="1">
-        <v>1.880634</v>
+        <v>1.8806339999999999</v>
       </c>
       <c r="AV18" s="1">
-        <v>1427.290000</v>
+        <v>1427.29</v>
       </c>
       <c r="AW18" s="1">
-        <v>-313.860000</v>
+        <v>-313.86</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>6780.945126</v>
+        <v>6780.9451259999996</v>
       </c>
       <c r="AZ18" s="1">
         <v>1.883596</v>
       </c>
       <c r="BA18" s="1">
-        <v>1446.380000</v>
+        <v>1446.38</v>
       </c>
       <c r="BB18" s="1">
-        <v>-366.516000</v>
+        <v>-366.51600000000002</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>6791.925593</v>
+        <v>6791.9255929999999</v>
       </c>
       <c r="BE18" s="1">
         <v>1.886646</v>
       </c>
       <c r="BF18" s="1">
-        <v>1530.200000</v>
+        <v>1530.2</v>
       </c>
       <c r="BG18" s="1">
-        <v>-617.982000</v>
+        <v>-617.98199999999997</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>6802.934762</v>
+        <v>6802.9347619999999</v>
       </c>
       <c r="BJ18" s="1">
-        <v>1.889704</v>
+        <v>1.8897040000000001</v>
       </c>
       <c r="BK18" s="1">
-        <v>1682.180000</v>
+        <v>1682.18</v>
       </c>
       <c r="BL18" s="1">
-        <v>-1070.950000</v>
+        <v>-1070.95</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>6813.757997</v>
+        <v>6813.7579969999997</v>
       </c>
       <c r="BO18" s="1">
         <v>1.892711</v>
       </c>
       <c r="BP18" s="1">
-        <v>1974.090000</v>
+        <v>1974.09</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-1859.930000</v>
+        <v>-1859.93</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>6824.377805</v>
+        <v>6824.3778050000001</v>
       </c>
       <c r="BT18" s="1">
         <v>1.895661</v>
       </c>
       <c r="BU18" s="1">
-        <v>2359.870000</v>
+        <v>2359.87</v>
       </c>
       <c r="BV18" s="1">
-        <v>-2777.080000</v>
+        <v>-2777.08</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>6835.258081</v>
+        <v>6835.2580809999999</v>
       </c>
       <c r="BY18" s="1">
-        <v>1.898683</v>
+        <v>1.8986829999999999</v>
       </c>
       <c r="BZ18" s="1">
-        <v>2845.640000</v>
+        <v>2845.64</v>
       </c>
       <c r="CA18" s="1">
-        <v>-3777.510000</v>
+        <v>-3777.51</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>6847.902558</v>
+        <v>6847.9025579999998</v>
       </c>
       <c r="CD18" s="1">
-        <v>1.902195</v>
+        <v>1.9021950000000001</v>
       </c>
       <c r="CE18" s="1">
-        <v>4275.090000</v>
+        <v>4275.09</v>
       </c>
       <c r="CF18" s="1">
-        <v>-6217.820000</v>
+        <v>-6217.82</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>6675.874113</v>
+        <v>6675.8741129999999</v>
       </c>
       <c r="B19" s="1">
         <v>1.854409</v>
       </c>
       <c r="C19" s="1">
-        <v>1246.510000</v>
+        <v>1246.51</v>
       </c>
       <c r="D19" s="1">
-        <v>-308.116000</v>
+        <v>-308.11599999999999</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>6685.944388</v>
+        <v>6685.9443879999999</v>
       </c>
       <c r="G19" s="1">
-        <v>1.857207</v>
+        <v>1.8572070000000001</v>
       </c>
       <c r="H19" s="1">
-        <v>1271.990000</v>
+        <v>1271.99</v>
       </c>
       <c r="I19" s="1">
-        <v>-265.998000</v>
+        <v>-265.99799999999999</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>6696.099511</v>
+        <v>6696.0995110000003</v>
       </c>
       <c r="L19" s="1">
         <v>1.860028</v>
       </c>
       <c r="M19" s="1">
-        <v>1306.590000</v>
+        <v>1306.5899999999999</v>
       </c>
       <c r="N19" s="1">
-        <v>-203.181000</v>
+        <v>-203.18100000000001</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>6706.324009</v>
+        <v>6706.3240089999999</v>
       </c>
       <c r="Q19" s="1">
         <v>1.862868</v>
       </c>
       <c r="R19" s="1">
-        <v>1318.370000</v>
+        <v>1318.37</v>
       </c>
       <c r="S19" s="1">
-        <v>-184.890000</v>
+        <v>-184.89</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>6716.786339</v>
+        <v>6716.7863390000002</v>
       </c>
       <c r="V19" s="1">
         <v>1.865774</v>
       </c>
       <c r="W19" s="1">
-        <v>1331.190000</v>
+        <v>1331.19</v>
       </c>
       <c r="X19" s="1">
-        <v>-171.379000</v>
+        <v>-171.37899999999999</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>6727.649533</v>
+        <v>6727.6495329999998</v>
       </c>
       <c r="AA19" s="1">
         <v>1.868792</v>
       </c>
       <c r="AB19" s="1">
-        <v>1348.280000</v>
+        <v>1348.28</v>
       </c>
       <c r="AC19" s="1">
-        <v>-169.121000</v>
+        <v>-169.12100000000001</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
         <v>6738.124511</v>
       </c>
       <c r="AF19" s="1">
-        <v>1.871701</v>
+        <v>1.8717010000000001</v>
       </c>
       <c r="AG19" s="1">
-        <v>1361.140000</v>
+        <v>1361.14</v>
       </c>
       <c r="AH19" s="1">
-        <v>-178.976000</v>
+        <v>-178.976</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>6748.689793</v>
+        <v>6748.6897929999996</v>
       </c>
       <c r="AK19" s="1">
         <v>1.874636</v>
       </c>
       <c r="AL19" s="1">
-        <v>1381.580000</v>
+        <v>1381.58</v>
       </c>
       <c r="AM19" s="1">
-        <v>-209.166000</v>
+        <v>-209.166</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>6759.583459</v>
+        <v>6759.5834590000004</v>
       </c>
       <c r="AP19" s="1">
-        <v>1.877662</v>
+        <v>1.8776619999999999</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1402.960000</v>
+        <v>1402.96</v>
       </c>
       <c r="AR19" s="1">
-        <v>-253.369000</v>
+        <v>-253.369</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>6770.644709</v>
+        <v>6770.6447090000001</v>
       </c>
       <c r="AU19" s="1">
         <v>1.880735</v>
       </c>
       <c r="AV19" s="1">
-        <v>1427.270000</v>
+        <v>1427.27</v>
       </c>
       <c r="AW19" s="1">
-        <v>-313.856000</v>
+        <v>-313.85599999999999</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>6781.304230</v>
+        <v>6781.3042299999997</v>
       </c>
       <c r="AZ19" s="1">
         <v>1.883696</v>
       </c>
       <c r="BA19" s="1">
-        <v>1446.410000</v>
+        <v>1446.41</v>
       </c>
       <c r="BB19" s="1">
-        <v>-366.503000</v>
+        <v>-366.50299999999999</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>6792.285659</v>
+        <v>6792.2856590000001</v>
       </c>
       <c r="BE19" s="1">
         <v>1.886746</v>
       </c>
       <c r="BF19" s="1">
-        <v>1530.240000</v>
+        <v>1530.24</v>
       </c>
       <c r="BG19" s="1">
-        <v>-617.926000</v>
+        <v>-617.92600000000004</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
         <v>6803.357849</v>
       </c>
       <c r="BJ19" s="1">
-        <v>1.889822</v>
+        <v>1.8898219999999999</v>
       </c>
       <c r="BK19" s="1">
-        <v>1682.220000</v>
+        <v>1682.22</v>
       </c>
       <c r="BL19" s="1">
-        <v>-1070.970000</v>
+        <v>-1070.97</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>6814.155260</v>
+        <v>6814.1552600000005</v>
       </c>
       <c r="BO19" s="1">
-        <v>1.892821</v>
+        <v>1.8928210000000001</v>
       </c>
       <c r="BP19" s="1">
-        <v>1973.860000</v>
+        <v>1973.86</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-1859.890000</v>
+        <v>-1859.89</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>6824.789516</v>
+        <v>6824.7895159999998</v>
       </c>
       <c r="BT19" s="1">
         <v>1.895775</v>
       </c>
       <c r="BU19" s="1">
-        <v>2358.610000</v>
+        <v>2358.61</v>
       </c>
       <c r="BV19" s="1">
-        <v>-2776.410000</v>
+        <v>-2776.41</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>6835.677662</v>
+        <v>6835.6776620000001</v>
       </c>
       <c r="BY19" s="1">
-        <v>1.898799</v>
+        <v>1.8987989999999999</v>
       </c>
       <c r="BZ19" s="1">
-        <v>2845.980000</v>
+        <v>2845.98</v>
       </c>
       <c r="CA19" s="1">
-        <v>-3776.220000</v>
+        <v>-3776.22</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
         <v>6848.442239</v>
@@ -5090,30 +5506,30 @@
         <v>1.902345</v>
       </c>
       <c r="CE19" s="1">
-        <v>4291.320000</v>
+        <v>4291.32</v>
       </c>
       <c r="CF19" s="1">
-        <v>-6201.500000</v>
+        <v>-6201.5</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>6676.219329</v>
+        <v>6676.2193289999996</v>
       </c>
       <c r="B20" s="1">
-        <v>1.854505</v>
+        <v>1.8545050000000001</v>
       </c>
       <c r="C20" s="1">
-        <v>1246.170000</v>
+        <v>1246.17</v>
       </c>
       <c r="D20" s="1">
-        <v>-308.757000</v>
+        <v>-308.75700000000001</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
         <v>6686.287652</v>
@@ -5122,43 +5538,43 @@
         <v>1.857302</v>
       </c>
       <c r="H20" s="1">
-        <v>1271.540000</v>
+        <v>1271.54</v>
       </c>
       <c r="I20" s="1">
-        <v>-265.971000</v>
+        <v>-265.971</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>6696.446679</v>
+        <v>6696.4466789999997</v>
       </c>
       <c r="L20" s="1">
-        <v>1.860124</v>
+        <v>1.8601240000000001</v>
       </c>
       <c r="M20" s="1">
-        <v>1306.740000</v>
+        <v>1306.74</v>
       </c>
       <c r="N20" s="1">
-        <v>-203.335000</v>
+        <v>-203.33500000000001</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>6706.672202</v>
+        <v>6706.6722019999997</v>
       </c>
       <c r="Q20" s="1">
         <v>1.862965</v>
       </c>
       <c r="R20" s="1">
-        <v>1318.260000</v>
+        <v>1318.26</v>
       </c>
       <c r="S20" s="1">
-        <v>-184.832000</v>
+        <v>-184.83199999999999</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
         <v>6717.429435</v>
@@ -5167,315 +5583,315 @@
         <v>1.865953</v>
       </c>
       <c r="W20" s="1">
-        <v>1331.250000</v>
+        <v>1331.25</v>
       </c>
       <c r="X20" s="1">
-        <v>-171.159000</v>
+        <v>-171.15899999999999</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>6728.046300</v>
+        <v>6728.0463</v>
       </c>
       <c r="AA20" s="1">
-        <v>1.868902</v>
+        <v>1.8689020000000001</v>
       </c>
       <c r="AB20" s="1">
-        <v>1348.430000</v>
+        <v>1348.43</v>
       </c>
       <c r="AC20" s="1">
-        <v>-169.013000</v>
+        <v>-169.01300000000001</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>6738.501471</v>
+        <v>6738.5014709999996</v>
       </c>
       <c r="AF20" s="1">
-        <v>1.871806</v>
+        <v>1.8718060000000001</v>
       </c>
       <c r="AG20" s="1">
-        <v>1361.100000</v>
+        <v>1361.1</v>
       </c>
       <c r="AH20" s="1">
-        <v>-178.985000</v>
+        <v>-178.98500000000001</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>6749.036498</v>
+        <v>6749.0364980000004</v>
       </c>
       <c r="AK20" s="1">
-        <v>1.874732</v>
+        <v>1.8747320000000001</v>
       </c>
       <c r="AL20" s="1">
-        <v>1381.580000</v>
+        <v>1381.58</v>
       </c>
       <c r="AM20" s="1">
-        <v>-209.131000</v>
+        <v>-209.131</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>6759.944514</v>
+        <v>6759.9445139999998</v>
       </c>
       <c r="AP20" s="1">
-        <v>1.877762</v>
+        <v>1.8777619999999999</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1402.990000</v>
+        <v>1402.99</v>
       </c>
       <c r="AR20" s="1">
-        <v>-253.357000</v>
+        <v>-253.357</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>6771.008773</v>
+        <v>6771.0087729999996</v>
       </c>
       <c r="AU20" s="1">
         <v>1.880836</v>
       </c>
       <c r="AV20" s="1">
-        <v>1427.300000</v>
+        <v>1427.3</v>
       </c>
       <c r="AW20" s="1">
-        <v>-313.860000</v>
+        <v>-313.86</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>6781.730644</v>
+        <v>6781.7306440000002</v>
       </c>
       <c r="AZ20" s="1">
-        <v>1.883814</v>
+        <v>1.8838140000000001</v>
       </c>
       <c r="BA20" s="1">
-        <v>1446.390000</v>
+        <v>1446.39</v>
       </c>
       <c r="BB20" s="1">
-        <v>-366.502000</v>
+        <v>-366.50200000000001</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>6793.008822</v>
+        <v>6793.0088219999998</v>
       </c>
       <c r="BE20" s="1">
-        <v>1.886947</v>
+        <v>1.8869469999999999</v>
       </c>
       <c r="BF20" s="1">
-        <v>1530.240000</v>
+        <v>1530.24</v>
       </c>
       <c r="BG20" s="1">
-        <v>-617.934000</v>
+        <v>-617.93399999999997</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>6803.696157</v>
+        <v>6803.6961570000003</v>
       </c>
       <c r="BJ20" s="1">
-        <v>1.889916</v>
+        <v>1.8899159999999999</v>
       </c>
       <c r="BK20" s="1">
-        <v>1682.300000</v>
+        <v>1682.3</v>
       </c>
       <c r="BL20" s="1">
-        <v>-1070.930000</v>
+        <v>-1070.93</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>6814.574409</v>
+        <v>6814.5744089999998</v>
       </c>
       <c r="BO20" s="1">
-        <v>1.892937</v>
+        <v>1.8929370000000001</v>
       </c>
       <c r="BP20" s="1">
-        <v>1973.940000</v>
+        <v>1973.94</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-1859.860000</v>
+        <v>-1859.86</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
         <v>6825.221501</v>
       </c>
       <c r="BT20" s="1">
-        <v>1.895895</v>
+        <v>1.8958950000000001</v>
       </c>
       <c r="BU20" s="1">
-        <v>2358.160000</v>
+        <v>2358.16</v>
       </c>
       <c r="BV20" s="1">
-        <v>-2775.330000</v>
+        <v>-2775.33</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>6836.102238</v>
+        <v>6836.1022380000004</v>
       </c>
       <c r="BY20" s="1">
         <v>1.898917</v>
       </c>
       <c r="BZ20" s="1">
-        <v>2845.350000</v>
+        <v>2845.35</v>
       </c>
       <c r="CA20" s="1">
-        <v>-3776.410000</v>
+        <v>-3776.41</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>6848.983340</v>
+        <v>6848.9833399999998</v>
       </c>
       <c r="CD20" s="1">
         <v>1.902495</v>
       </c>
       <c r="CE20" s="1">
-        <v>4269.130000</v>
+        <v>4269.13</v>
       </c>
       <c r="CF20" s="1">
-        <v>-6205.750000</v>
+        <v>-6205.75</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>6676.561093</v>
+        <v>6676.5610930000003</v>
       </c>
       <c r="B21" s="1">
-        <v>1.854600</v>
+        <v>1.8546</v>
       </c>
       <c r="C21" s="1">
-        <v>1246.500000</v>
+        <v>1246.5</v>
       </c>
       <c r="D21" s="1">
-        <v>-308.454000</v>
+        <v>-308.45400000000001</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>6686.637333</v>
+        <v>6686.6373329999997</v>
       </c>
       <c r="G21" s="1">
         <v>1.857399</v>
       </c>
       <c r="H21" s="1">
-        <v>1271.530000</v>
+        <v>1271.53</v>
       </c>
       <c r="I21" s="1">
-        <v>-265.031000</v>
+        <v>-265.03100000000001</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>6697.094949</v>
+        <v>6697.0949490000003</v>
       </c>
       <c r="L21" s="1">
         <v>1.860304</v>
       </c>
       <c r="M21" s="1">
-        <v>1306.720000</v>
+        <v>1306.72</v>
       </c>
       <c r="N21" s="1">
-        <v>-203.173000</v>
+        <v>-203.173</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>6707.341341</v>
+        <v>6707.3413410000003</v>
       </c>
       <c r="Q21" s="1">
-        <v>1.863150</v>
+        <v>1.8631500000000001</v>
       </c>
       <c r="R21" s="1">
-        <v>1318.400000</v>
+        <v>1318.4</v>
       </c>
       <c r="S21" s="1">
-        <v>-184.733000</v>
+        <v>-184.733</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>6717.814826</v>
+        <v>6717.8148259999998</v>
       </c>
       <c r="V21" s="1">
-        <v>1.866060</v>
+        <v>1.8660600000000001</v>
       </c>
       <c r="W21" s="1">
-        <v>1331.280000</v>
+        <v>1331.28</v>
       </c>
       <c r="X21" s="1">
-        <v>-171.254000</v>
+        <v>-171.25399999999999</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>6728.393527</v>
+        <v>6728.3935270000002</v>
       </c>
       <c r="AA21" s="1">
-        <v>1.868998</v>
+        <v>1.8689979999999999</v>
       </c>
       <c r="AB21" s="1">
-        <v>1348.420000</v>
+        <v>1348.42</v>
       </c>
       <c r="AC21" s="1">
-        <v>-169.178000</v>
+        <v>-169.178</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>6738.844704</v>
+        <v>6738.8447040000001</v>
       </c>
       <c r="AF21" s="1">
         <v>1.871901</v>
       </c>
       <c r="AG21" s="1">
-        <v>1361.160000</v>
+        <v>1361.16</v>
       </c>
       <c r="AH21" s="1">
-        <v>-178.977000</v>
+        <v>-178.977</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>6749.384193</v>
+        <v>6749.3841929999999</v>
       </c>
       <c r="AK21" s="1">
-        <v>1.874829</v>
+        <v>1.8748290000000001</v>
       </c>
       <c r="AL21" s="1">
-        <v>1381.570000</v>
+        <v>1381.57</v>
       </c>
       <c r="AM21" s="1">
-        <v>-209.143000</v>
+        <v>-209.143</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
         <v>6760.356194</v>
@@ -5484,393 +5900,393 @@
         <v>1.877877</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1402.960000</v>
+        <v>1402.96</v>
       </c>
       <c r="AR21" s="1">
-        <v>-253.364000</v>
+        <v>-253.364</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
         <v>6771.420451</v>
       </c>
       <c r="AU21" s="1">
-        <v>1.880950</v>
+        <v>1.8809499999999999</v>
       </c>
       <c r="AV21" s="1">
-        <v>1427.280000</v>
+        <v>1427.28</v>
       </c>
       <c r="AW21" s="1">
-        <v>-313.846000</v>
+        <v>-313.846</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>6782.021973</v>
+        <v>6782.0219729999999</v>
       </c>
       <c r="AZ21" s="1">
-        <v>1.883895</v>
+        <v>1.8838950000000001</v>
       </c>
       <c r="BA21" s="1">
-        <v>1446.430000</v>
+        <v>1446.43</v>
       </c>
       <c r="BB21" s="1">
-        <v>-366.459000</v>
+        <v>-366.459</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>6793.398215</v>
+        <v>6793.3982150000002</v>
       </c>
       <c r="BE21" s="1">
-        <v>1.887055</v>
+        <v>1.8870549999999999</v>
       </c>
       <c r="BF21" s="1">
-        <v>1530.290000</v>
+        <v>1530.29</v>
       </c>
       <c r="BG21" s="1">
-        <v>-617.900000</v>
+        <v>-617.9</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>6804.083496</v>
+        <v>6804.0834960000002</v>
       </c>
       <c r="BJ21" s="1">
         <v>1.890023</v>
       </c>
       <c r="BK21" s="1">
-        <v>1682.260000</v>
+        <v>1682.26</v>
       </c>
       <c r="BL21" s="1">
-        <v>-1070.960000</v>
+        <v>-1070.96</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>6814.973162</v>
+        <v>6814.9731620000002</v>
       </c>
       <c r="BO21" s="1">
-        <v>1.893048</v>
+        <v>1.8930480000000001</v>
       </c>
       <c r="BP21" s="1">
-        <v>1974.020000</v>
+        <v>1974.02</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-1859.760000</v>
+        <v>-1859.76</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>6825.649053</v>
+        <v>6825.6490530000001</v>
       </c>
       <c r="BT21" s="1">
-        <v>1.896014</v>
+        <v>1.8960140000000001</v>
       </c>
       <c r="BU21" s="1">
-        <v>2358.440000</v>
+        <v>2358.44</v>
       </c>
       <c r="BV21" s="1">
-        <v>-2774.190000</v>
+        <v>-2774.19</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>6836.524365</v>
+        <v>6836.5243650000002</v>
       </c>
       <c r="BY21" s="1">
         <v>1.899035</v>
       </c>
       <c r="BZ21" s="1">
-        <v>2845.360000</v>
+        <v>2845.36</v>
       </c>
       <c r="CA21" s="1">
-        <v>-3776.850000</v>
+        <v>-3776.85</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
         <v>6849.522524</v>
       </c>
       <c r="CD21" s="1">
-        <v>1.902645</v>
+        <v>1.9026449999999999</v>
       </c>
       <c r="CE21" s="1">
-        <v>4285.630000</v>
+        <v>4285.63</v>
       </c>
       <c r="CF21" s="1">
-        <v>-6214.910000</v>
+        <v>-6214.91</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>6677.210864</v>
+        <v>6677.2108639999997</v>
       </c>
       <c r="B22" s="1">
         <v>1.854781</v>
       </c>
       <c r="C22" s="1">
-        <v>1245.860000</v>
+        <v>1245.8599999999999</v>
       </c>
       <c r="D22" s="1">
-        <v>-307.993000</v>
+        <v>-307.99299999999999</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>6687.288075</v>
+        <v>6687.2880750000004</v>
       </c>
       <c r="G22" s="1">
-        <v>1.857580</v>
+        <v>1.85758</v>
       </c>
       <c r="H22" s="1">
-        <v>1272.000000</v>
+        <v>1272</v>
       </c>
       <c r="I22" s="1">
-        <v>-266.419000</v>
+        <v>-266.41899999999998</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>6697.486294</v>
+        <v>6697.4862940000003</v>
       </c>
       <c r="L22" s="1">
-        <v>1.860413</v>
+        <v>1.8604130000000001</v>
       </c>
       <c r="M22" s="1">
-        <v>1306.840000</v>
+        <v>1306.8399999999999</v>
       </c>
       <c r="N22" s="1">
-        <v>-202.901000</v>
+        <v>-202.90100000000001</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>6707.720743</v>
+        <v>6707.7207429999999</v>
       </c>
       <c r="Q22" s="1">
         <v>1.863256</v>
       </c>
       <c r="R22" s="1">
-        <v>1318.350000</v>
+        <v>1318.35</v>
       </c>
       <c r="S22" s="1">
-        <v>-184.777000</v>
+        <v>-184.77699999999999</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>6718.162025</v>
+        <v>6718.1620249999996</v>
       </c>
       <c r="V22" s="1">
-        <v>1.866156</v>
+        <v>1.8661559999999999</v>
       </c>
       <c r="W22" s="1">
-        <v>1331.380000</v>
+        <v>1331.38</v>
       </c>
       <c r="X22" s="1">
-        <v>-171.261000</v>
+        <v>-171.261</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>6728.740732</v>
+        <v>6728.7407320000002</v>
       </c>
       <c r="AA22" s="1">
         <v>1.869095</v>
       </c>
       <c r="AB22" s="1">
-        <v>1348.280000</v>
+        <v>1348.28</v>
       </c>
       <c r="AC22" s="1">
-        <v>-169.196000</v>
+        <v>-169.196</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
         <v>6739.189918</v>
       </c>
       <c r="AF22" s="1">
-        <v>1.871997</v>
+        <v>1.8719969999999999</v>
       </c>
       <c r="AG22" s="1">
-        <v>1361.140000</v>
+        <v>1361.14</v>
       </c>
       <c r="AH22" s="1">
-        <v>-178.972000</v>
+        <v>-178.97200000000001</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>6749.793391</v>
+        <v>6749.7933910000002</v>
       </c>
       <c r="AK22" s="1">
         <v>1.874943</v>
       </c>
       <c r="AL22" s="1">
-        <v>1381.580000</v>
+        <v>1381.58</v>
       </c>
       <c r="AM22" s="1">
-        <v>-209.145000</v>
+        <v>-209.14500000000001</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>6760.665202</v>
+        <v>6760.6652020000001</v>
       </c>
       <c r="AP22" s="1">
         <v>1.877963</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1402.980000</v>
+        <v>1402.98</v>
       </c>
       <c r="AR22" s="1">
-        <v>-253.331000</v>
+        <v>-253.33099999999999</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>6771.738915</v>
+        <v>6771.7389149999999</v>
       </c>
       <c r="AU22" s="1">
-        <v>1.881039</v>
+        <v>1.8810389999999999</v>
       </c>
       <c r="AV22" s="1">
-        <v>1427.310000</v>
+        <v>1427.31</v>
       </c>
       <c r="AW22" s="1">
-        <v>-313.852000</v>
+        <v>-313.85199999999998</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>6782.380054</v>
+        <v>6782.3800540000002</v>
       </c>
       <c r="AZ22" s="1">
-        <v>1.883994</v>
+        <v>1.8839939999999999</v>
       </c>
       <c r="BA22" s="1">
-        <v>1446.400000</v>
+        <v>1446.4</v>
       </c>
       <c r="BB22" s="1">
-        <v>-366.480000</v>
+        <v>-366.48</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>6793.758775</v>
+        <v>6793.7587750000002</v>
       </c>
       <c r="BE22" s="1">
-        <v>1.887155</v>
+        <v>1.8871549999999999</v>
       </c>
       <c r="BF22" s="1">
-        <v>1530.250000</v>
+        <v>1530.25</v>
       </c>
       <c r="BG22" s="1">
-        <v>-617.912000</v>
+        <v>-617.91200000000003</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>6804.459960</v>
+        <v>6804.4599600000001</v>
       </c>
       <c r="BJ22" s="1">
         <v>1.890128</v>
       </c>
       <c r="BK22" s="1">
-        <v>1682.240000</v>
+        <v>1682.24</v>
       </c>
       <c r="BL22" s="1">
-        <v>-1070.930000</v>
+        <v>-1070.93</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>6815.394412</v>
+        <v>6815.3944119999996</v>
       </c>
       <c r="BO22" s="1">
         <v>1.893165</v>
       </c>
       <c r="BP22" s="1">
-        <v>1974.070000</v>
+        <v>1974.07</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-1859.880000</v>
+        <v>-1859.88</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>6826.062716</v>
+        <v>6826.0627160000004</v>
       </c>
       <c r="BT22" s="1">
         <v>1.896129</v>
       </c>
       <c r="BU22" s="1">
-        <v>2358.130000</v>
+        <v>2358.13</v>
       </c>
       <c r="BV22" s="1">
-        <v>-2773.640000</v>
+        <v>-2773.64</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>6836.940478</v>
+        <v>6836.9404780000004</v>
       </c>
       <c r="BY22" s="1">
-        <v>1.899150</v>
+        <v>1.8991499999999999</v>
       </c>
       <c r="BZ22" s="1">
-        <v>2845.030000</v>
+        <v>2845.03</v>
       </c>
       <c r="CA22" s="1">
-        <v>-3776.720000</v>
+        <v>-3776.72</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>6850.061680</v>
+        <v>6850.0616799999998</v>
       </c>
       <c r="CD22" s="1">
         <v>1.902795</v>
       </c>
       <c r="CE22" s="1">
-        <v>4284.060000</v>
+        <v>4284.0600000000004</v>
       </c>
       <c r="CF22" s="1">
-        <v>-6195.950000</v>
+        <v>-6195.95</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
         <v>6677.582367</v>
       </c>
@@ -5878,315 +6294,315 @@
         <v>1.854884</v>
       </c>
       <c r="C23" s="1">
-        <v>1246.260000</v>
+        <v>1246.26</v>
       </c>
       <c r="D23" s="1">
-        <v>-308.568000</v>
+        <v>-308.56799999999998</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>6687.669507</v>
+        <v>6687.6695069999996</v>
       </c>
       <c r="G23" s="1">
-        <v>1.857686</v>
+        <v>1.8576859999999999</v>
       </c>
       <c r="H23" s="1">
-        <v>1272.040000</v>
+        <v>1272.04</v>
       </c>
       <c r="I23" s="1">
-        <v>-266.918000</v>
+        <v>-266.91800000000001</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>6697.828532</v>
+        <v>6697.8285320000005</v>
       </c>
       <c r="L23" s="1">
-        <v>1.860508</v>
+        <v>1.8605080000000001</v>
       </c>
       <c r="M23" s="1">
-        <v>1306.610000</v>
+        <v>1306.6099999999999</v>
       </c>
       <c r="N23" s="1">
-        <v>-202.790000</v>
+        <v>-202.79</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>6708.067975</v>
+        <v>6708.0679749999999</v>
       </c>
       <c r="Q23" s="1">
-        <v>1.863352</v>
+        <v>1.8633519999999999</v>
       </c>
       <c r="R23" s="1">
-        <v>1318.430000</v>
+        <v>1318.43</v>
       </c>
       <c r="S23" s="1">
-        <v>-184.844000</v>
+        <v>-184.84399999999999</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>6718.508730</v>
+        <v>6718.5087299999996</v>
       </c>
       <c r="V23" s="1">
         <v>1.866252</v>
       </c>
       <c r="W23" s="1">
-        <v>1331.170000</v>
+        <v>1331.17</v>
       </c>
       <c r="X23" s="1">
-        <v>-171.241000</v>
+        <v>-171.24100000000001</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>6729.170235</v>
+        <v>6729.1702349999996</v>
       </c>
       <c r="AA23" s="1">
-        <v>1.869214</v>
+        <v>1.8692139999999999</v>
       </c>
       <c r="AB23" s="1">
-        <v>1348.290000</v>
+        <v>1348.29</v>
       </c>
       <c r="AC23" s="1">
-        <v>-169.272000</v>
+        <v>-169.27199999999999</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>6739.609037</v>
+        <v>6739.6090370000002</v>
       </c>
       <c r="AF23" s="1">
-        <v>1.872114</v>
+        <v>1.8721140000000001</v>
       </c>
       <c r="AG23" s="1">
-        <v>1361.150000</v>
+        <v>1361.15</v>
       </c>
       <c r="AH23" s="1">
-        <v>-179.002000</v>
+        <v>-179.00200000000001</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>6750.093967</v>
+        <v>6750.0939669999998</v>
       </c>
       <c r="AK23" s="1">
-        <v>1.875026</v>
+        <v>1.8750260000000001</v>
       </c>
       <c r="AL23" s="1">
-        <v>1381.540000</v>
+        <v>1381.54</v>
       </c>
       <c r="AM23" s="1">
-        <v>-209.130000</v>
+        <v>-209.13</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>6761.024802</v>
+        <v>6761.0248019999999</v>
       </c>
       <c r="AP23" s="1">
-        <v>1.878062</v>
+        <v>1.8780619999999999</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1402.990000</v>
+        <v>1402.99</v>
       </c>
       <c r="AR23" s="1">
-        <v>-253.293000</v>
+        <v>-253.29300000000001</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>6772.106450</v>
+        <v>6772.1064500000002</v>
       </c>
       <c r="AU23" s="1">
         <v>1.881141</v>
       </c>
       <c r="AV23" s="1">
-        <v>1427.320000</v>
+        <v>1427.32</v>
       </c>
       <c r="AW23" s="1">
-        <v>-313.846000</v>
+        <v>-313.846</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>6782.741173</v>
+        <v>6782.7411730000003</v>
       </c>
       <c r="AZ23" s="1">
-        <v>1.884095</v>
+        <v>1.8840950000000001</v>
       </c>
       <c r="BA23" s="1">
-        <v>1446.370000</v>
+        <v>1446.37</v>
       </c>
       <c r="BB23" s="1">
-        <v>-366.469000</v>
+        <v>-366.46899999999999</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>6794.482437</v>
+        <v>6794.4824369999997</v>
       </c>
       <c r="BE23" s="1">
         <v>1.887356</v>
       </c>
       <c r="BF23" s="1">
-        <v>1530.250000</v>
+        <v>1530.25</v>
       </c>
       <c r="BG23" s="1">
-        <v>-617.913000</v>
+        <v>-617.91300000000001</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>6805.209910</v>
+        <v>6805.2099099999996</v>
       </c>
       <c r="BJ23" s="1">
         <v>1.890336</v>
       </c>
       <c r="BK23" s="1">
-        <v>1682.180000</v>
+        <v>1682.18</v>
       </c>
       <c r="BL23" s="1">
-        <v>-1070.930000</v>
+        <v>-1070.93</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>6815.789081</v>
+        <v>6815.7890809999999</v>
       </c>
       <c r="BO23" s="1">
         <v>1.893275</v>
       </c>
       <c r="BP23" s="1">
-        <v>1973.940000</v>
+        <v>1973.94</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-1859.680000</v>
+        <v>-1859.68</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>6826.491292</v>
+        <v>6826.4912919999997</v>
       </c>
       <c r="BT23" s="1">
-        <v>1.896248</v>
+        <v>1.8962479999999999</v>
       </c>
       <c r="BU23" s="1">
-        <v>2358.790000</v>
+        <v>2358.79</v>
       </c>
       <c r="BV23" s="1">
-        <v>-2772.810000</v>
+        <v>-2772.81</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
         <v>6837.396796</v>
       </c>
       <c r="BY23" s="1">
-        <v>1.899277</v>
+        <v>1.8992770000000001</v>
       </c>
       <c r="BZ23" s="1">
-        <v>2845.400000</v>
+        <v>2845.4</v>
       </c>
       <c r="CA23" s="1">
-        <v>-3776.010000</v>
+        <v>-3776.01</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>6850.904346</v>
+        <v>6850.9043460000003</v>
       </c>
       <c r="CD23" s="1">
-        <v>1.903029</v>
+        <v>1.9030290000000001</v>
       </c>
       <c r="CE23" s="1">
-        <v>4290.020000</v>
+        <v>4290.0200000000004</v>
       </c>
       <c r="CF23" s="1">
-        <v>-6215.900000</v>
+        <v>-6215.9</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
         <v>6677.925072</v>
       </c>
       <c r="B24" s="1">
-        <v>1.854979</v>
+        <v>1.8549789999999999</v>
       </c>
       <c r="C24" s="1">
-        <v>1245.780000</v>
+        <v>1245.78</v>
       </c>
       <c r="D24" s="1">
-        <v>-308.632000</v>
+        <v>-308.63200000000001</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>6688.017169</v>
+        <v>6688.0171689999997</v>
       </c>
       <c r="G24" s="1">
         <v>1.857783</v>
       </c>
       <c r="H24" s="1">
-        <v>1271.820000</v>
+        <v>1271.82</v>
       </c>
       <c r="I24" s="1">
-        <v>-266.029000</v>
+        <v>-266.029</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>6698.176229</v>
+        <v>6698.1762289999997</v>
       </c>
       <c r="L24" s="1">
-        <v>1.860605</v>
+        <v>1.8606050000000001</v>
       </c>
       <c r="M24" s="1">
-        <v>1306.890000</v>
+        <v>1306.8900000000001</v>
       </c>
       <c r="N24" s="1">
-        <v>-203.208000</v>
+        <v>-203.208</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>6708.482134</v>
+        <v>6708.4821339999999</v>
       </c>
       <c r="Q24" s="1">
         <v>1.863467</v>
       </c>
       <c r="R24" s="1">
-        <v>1318.340000</v>
+        <v>1318.34</v>
       </c>
       <c r="S24" s="1">
-        <v>-184.820000</v>
+        <v>-184.82</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
         <v>6718.924908</v>
@@ -6195,43 +6611,43 @@
         <v>1.866368</v>
       </c>
       <c r="W24" s="1">
-        <v>1331.230000</v>
+        <v>1331.23</v>
       </c>
       <c r="X24" s="1">
-        <v>-171.266000</v>
+        <v>-171.26599999999999</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>6729.449484</v>
+        <v>6729.4494839999998</v>
       </c>
       <c r="AA24" s="1">
         <v>1.869292</v>
       </c>
       <c r="AB24" s="1">
-        <v>1348.360000</v>
+        <v>1348.36</v>
       </c>
       <c r="AC24" s="1">
-        <v>-169.253000</v>
+        <v>-169.25299999999999</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>6739.899693</v>
+        <v>6739.8996930000003</v>
       </c>
       <c r="AF24" s="1">
-        <v>1.872194</v>
+        <v>1.8721939999999999</v>
       </c>
       <c r="AG24" s="1">
-        <v>1361.060000</v>
+        <v>1361.06</v>
       </c>
       <c r="AH24" s="1">
-        <v>-178.927000</v>
+        <v>-178.92699999999999</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
         <v>6750.439711</v>
@@ -6240,527 +6656,527 @@
         <v>1.875122</v>
       </c>
       <c r="AL24" s="1">
-        <v>1381.530000</v>
+        <v>1381.53</v>
       </c>
       <c r="AM24" s="1">
-        <v>-209.100000</v>
+        <v>-209.1</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>6761.384400</v>
+        <v>6761.3843999999999</v>
       </c>
       <c r="AP24" s="1">
-        <v>1.878162</v>
+        <v>1.8781620000000001</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1403.010000</v>
+        <v>1403.01</v>
       </c>
       <c r="AR24" s="1">
-        <v>-253.330000</v>
+        <v>-253.33</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>6772.470482</v>
+        <v>6772.4704819999997</v>
       </c>
       <c r="AU24" s="1">
-        <v>1.881242</v>
+        <v>1.8812420000000001</v>
       </c>
       <c r="AV24" s="1">
-        <v>1427.320000</v>
+        <v>1427.32</v>
       </c>
       <c r="AW24" s="1">
-        <v>-313.849000</v>
+        <v>-313.84899999999999</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>6783.461331</v>
+        <v>6783.4613310000004</v>
       </c>
       <c r="AZ24" s="1">
-        <v>1.884295</v>
+        <v>1.8842950000000001</v>
       </c>
       <c r="BA24" s="1">
-        <v>1446.400000</v>
+        <v>1446.4</v>
       </c>
       <c r="BB24" s="1">
-        <v>-366.508000</v>
+        <v>-366.50799999999998</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>6794.870341</v>
+        <v>6794.8703409999998</v>
       </c>
       <c r="BE24" s="1">
         <v>1.887464</v>
       </c>
       <c r="BF24" s="1">
-        <v>1530.290000</v>
+        <v>1530.29</v>
       </c>
       <c r="BG24" s="1">
-        <v>-617.921000</v>
+        <v>-617.92100000000005</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>6805.585414</v>
+        <v>6805.5854140000001</v>
       </c>
       <c r="BJ24" s="1">
-        <v>1.890440</v>
+        <v>1.8904399999999999</v>
       </c>
       <c r="BK24" s="1">
-        <v>1682.240000</v>
+        <v>1682.24</v>
       </c>
       <c r="BL24" s="1">
-        <v>-1070.880000</v>
+        <v>-1070.8800000000001</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>6816.211673</v>
+        <v>6816.2116729999998</v>
       </c>
       <c r="BO24" s="1">
         <v>1.893392</v>
       </c>
       <c r="BP24" s="1">
-        <v>1973.960000</v>
+        <v>1973.96</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-1859.630000</v>
+        <v>-1859.63</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>6826.945099</v>
+        <v>6826.9450989999996</v>
       </c>
       <c r="BT24" s="1">
         <v>1.896374</v>
       </c>
       <c r="BU24" s="1">
-        <v>2359.620000</v>
+        <v>2359.62</v>
       </c>
       <c r="BV24" s="1">
-        <v>-2772.010000</v>
+        <v>-2772.01</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>6838.146252</v>
+        <v>6838.1462519999995</v>
       </c>
       <c r="BY24" s="1">
-        <v>1.899485</v>
+        <v>1.8994850000000001</v>
       </c>
       <c r="BZ24" s="1">
-        <v>2845.000000</v>
+        <v>2845</v>
       </c>
       <c r="CA24" s="1">
-        <v>-3777.510000</v>
+        <v>-3777.51</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>6851.141935</v>
+        <v>6851.1419349999996</v>
       </c>
       <c r="CD24" s="1">
         <v>1.903095</v>
       </c>
       <c r="CE24" s="1">
-        <v>4288.460000</v>
+        <v>4288.46</v>
       </c>
       <c r="CF24" s="1">
-        <v>-6214.950000</v>
+        <v>-6214.95</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>6678.270782</v>
+        <v>6678.2707819999996</v>
       </c>
       <c r="B25" s="1">
         <v>1.855075</v>
       </c>
       <c r="C25" s="1">
-        <v>1246.320000</v>
+        <v>1246.32</v>
       </c>
       <c r="D25" s="1">
-        <v>-308.352000</v>
+        <v>-308.35199999999998</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>6688.361394</v>
+        <v>6688.3613939999996</v>
       </c>
       <c r="G25" s="1">
-        <v>1.857878</v>
+        <v>1.8578779999999999</v>
       </c>
       <c r="H25" s="1">
-        <v>1270.800000</v>
+        <v>1270.8</v>
       </c>
       <c r="I25" s="1">
-        <v>-266.323000</v>
+        <v>-266.32299999999998</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
         <v>6698.594889</v>
       </c>
       <c r="L25" s="1">
-        <v>1.860721</v>
+        <v>1.8607210000000001</v>
       </c>
       <c r="M25" s="1">
-        <v>1306.610000</v>
+        <v>1306.6099999999999</v>
       </c>
       <c r="N25" s="1">
-        <v>-202.996000</v>
+        <v>-202.99600000000001</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>6708.763862</v>
+        <v>6708.7638619999998</v>
       </c>
       <c r="Q25" s="1">
-        <v>1.863546</v>
+        <v>1.8635459999999999</v>
       </c>
       <c r="R25" s="1">
-        <v>1318.340000</v>
+        <v>1318.34</v>
       </c>
       <c r="S25" s="1">
-        <v>-184.794000</v>
+        <v>-184.79400000000001</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>6719.211561</v>
+        <v>6719.2115610000001</v>
       </c>
       <c r="V25" s="1">
-        <v>1.866448</v>
+        <v>1.8664480000000001</v>
       </c>
       <c r="W25" s="1">
-        <v>1331.290000</v>
+        <v>1331.29</v>
       </c>
       <c r="X25" s="1">
-        <v>-171.214000</v>
+        <v>-171.214</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>6729.798666</v>
+        <v>6729.7986659999997</v>
       </c>
       <c r="AA25" s="1">
         <v>1.869389</v>
       </c>
       <c r="AB25" s="1">
-        <v>1348.240000</v>
+        <v>1348.24</v>
       </c>
       <c r="AC25" s="1">
-        <v>-169.214000</v>
+        <v>-169.214</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>6740.240484</v>
+        <v>6740.2404839999999</v>
       </c>
       <c r="AF25" s="1">
-        <v>1.872289</v>
+        <v>1.8722890000000001</v>
       </c>
       <c r="AG25" s="1">
-        <v>1361.130000</v>
+        <v>1361.13</v>
       </c>
       <c r="AH25" s="1">
-        <v>-178.986000</v>
+        <v>-178.98599999999999</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>6750.788862</v>
+        <v>6750.7888620000003</v>
       </c>
       <c r="AK25" s="1">
         <v>1.875219</v>
       </c>
       <c r="AL25" s="1">
-        <v>1381.520000</v>
+        <v>1381.52</v>
       </c>
       <c r="AM25" s="1">
-        <v>-209.151000</v>
+        <v>-209.15100000000001</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>6762.103601</v>
+        <v>6762.1036009999998</v>
       </c>
       <c r="AP25" s="1">
-        <v>1.878362</v>
+        <v>1.8783620000000001</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1403.020000</v>
+        <v>1403.02</v>
       </c>
       <c r="AR25" s="1">
-        <v>-253.343000</v>
+        <v>-253.34299999999999</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>6773.196625</v>
+        <v>6773.1966249999996</v>
       </c>
       <c r="AU25" s="1">
-        <v>1.881444</v>
+        <v>1.8814439999999999</v>
       </c>
       <c r="AV25" s="1">
-        <v>1427.310000</v>
+        <v>1427.31</v>
       </c>
       <c r="AW25" s="1">
-        <v>-313.842000</v>
+        <v>-313.84199999999998</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>6783.836307</v>
+        <v>6783.8363069999996</v>
       </c>
       <c r="AZ25" s="1">
-        <v>1.884399</v>
+        <v>1.8843989999999999</v>
       </c>
       <c r="BA25" s="1">
-        <v>1446.400000</v>
+        <v>1446.4</v>
       </c>
       <c r="BB25" s="1">
-        <v>-366.463000</v>
+        <v>-366.46300000000002</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>6795.232389</v>
+        <v>6795.2323889999998</v>
       </c>
       <c r="BE25" s="1">
-        <v>1.887565</v>
+        <v>1.8875649999999999</v>
       </c>
       <c r="BF25" s="1">
-        <v>1530.290000</v>
+        <v>1530.29</v>
       </c>
       <c r="BG25" s="1">
-        <v>-617.899000</v>
+        <v>-617.899</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>6805.961674</v>
+        <v>6805.9616740000001</v>
       </c>
       <c r="BJ25" s="1">
-        <v>1.890545</v>
+        <v>1.8905449999999999</v>
       </c>
       <c r="BK25" s="1">
-        <v>1682.260000</v>
+        <v>1682.26</v>
       </c>
       <c r="BL25" s="1">
-        <v>-1070.840000</v>
+        <v>-1070.8399999999999</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>6816.907560</v>
+        <v>6816.9075599999996</v>
       </c>
       <c r="BO25" s="1">
-        <v>1.893585</v>
+        <v>1.8935850000000001</v>
       </c>
       <c r="BP25" s="1">
-        <v>1973.980000</v>
+        <v>1973.98</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-1859.610000</v>
+        <v>-1859.61</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>6827.373641</v>
+        <v>6827.3736410000001</v>
       </c>
       <c r="BT25" s="1">
         <v>1.896493</v>
       </c>
       <c r="BU25" s="1">
-        <v>2360.420000</v>
+        <v>2360.42</v>
       </c>
       <c r="BV25" s="1">
-        <v>-2771.930000</v>
+        <v>-2771.93</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>6838.279706</v>
+        <v>6838.2797060000003</v>
       </c>
       <c r="BY25" s="1">
-        <v>1.899522</v>
+        <v>1.8995219999999999</v>
       </c>
       <c r="BZ25" s="1">
-        <v>2845.590000</v>
+        <v>2845.59</v>
       </c>
       <c r="CA25" s="1">
-        <v>-3776.300000</v>
+        <v>-3776.3</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>6851.660287</v>
+        <v>6851.6602869999997</v>
       </c>
       <c r="CD25" s="1">
-        <v>1.903239</v>
+        <v>1.9032389999999999</v>
       </c>
       <c r="CE25" s="1">
-        <v>4286.610000</v>
+        <v>4286.6099999999997</v>
       </c>
       <c r="CF25" s="1">
-        <v>-6199.930000</v>
+        <v>-6199.93</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>6678.694397</v>
+        <v>6678.6943970000002</v>
       </c>
       <c r="B26" s="1">
-        <v>1.855193</v>
+        <v>1.8551930000000001</v>
       </c>
       <c r="C26" s="1">
-        <v>1246.230000</v>
+        <v>1246.23</v>
       </c>
       <c r="D26" s="1">
-        <v>-308.590000</v>
+        <v>-308.58999999999997</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>6688.782497</v>
+        <v>6688.7824970000001</v>
       </c>
       <c r="G26" s="1">
-        <v>1.857995</v>
+        <v>1.8579950000000001</v>
       </c>
       <c r="H26" s="1">
-        <v>1271.420000</v>
+        <v>1271.42</v>
       </c>
       <c r="I26" s="1">
-        <v>-266.469000</v>
+        <v>-266.46899999999999</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>6698.888045</v>
+        <v>6698.8880449999997</v>
       </c>
       <c r="L26" s="1">
-        <v>1.860802</v>
+        <v>1.8608020000000001</v>
       </c>
       <c r="M26" s="1">
-        <v>1306.510000</v>
+        <v>1306.51</v>
       </c>
       <c r="N26" s="1">
-        <v>-202.998000</v>
+        <v>-202.99799999999999</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
         <v>6709.114501</v>
       </c>
       <c r="Q26" s="1">
-        <v>1.863643</v>
+        <v>1.8636429999999999</v>
       </c>
       <c r="R26" s="1">
-        <v>1318.350000</v>
+        <v>1318.35</v>
       </c>
       <c r="S26" s="1">
-        <v>-184.862000</v>
+        <v>-184.86199999999999</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>6719.554792</v>
+        <v>6719.5547919999999</v>
       </c>
       <c r="V26" s="1">
-        <v>1.866543</v>
+        <v>1.8665430000000001</v>
       </c>
       <c r="W26" s="1">
-        <v>1331.230000</v>
+        <v>1331.23</v>
       </c>
       <c r="X26" s="1">
-        <v>-171.157000</v>
+        <v>-171.15700000000001</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>6730.144411</v>
+        <v>6730.1444110000002</v>
       </c>
       <c r="AA26" s="1">
-        <v>1.869485</v>
+        <v>1.8694850000000001</v>
       </c>
       <c r="AB26" s="1">
-        <v>1348.310000</v>
+        <v>1348.31</v>
       </c>
       <c r="AC26" s="1">
-        <v>-169.349000</v>
+        <v>-169.34899999999999</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>6740.584250</v>
+        <v>6740.5842499999999</v>
       </c>
       <c r="AF26" s="1">
         <v>1.872385</v>
       </c>
       <c r="AG26" s="1">
-        <v>1361.120000</v>
+        <v>1361.12</v>
       </c>
       <c r="AH26" s="1">
-        <v>-178.975000</v>
+        <v>-178.97499999999999</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>6751.488755</v>
+        <v>6751.4887550000003</v>
       </c>
       <c r="AK26" s="1">
-        <v>1.875414</v>
+        <v>1.8754139999999999</v>
       </c>
       <c r="AL26" s="1">
-        <v>1381.530000</v>
+        <v>1381.53</v>
       </c>
       <c r="AM26" s="1">
-        <v>-209.142000</v>
+        <v>-209.142</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
         <v>6762.468159</v>
@@ -6769,135 +7185,136 @@
         <v>1.878463</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1403.030000</v>
+        <v>1403.03</v>
       </c>
       <c r="AR26" s="1">
-        <v>-253.329000</v>
+        <v>-253.32900000000001</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>6773.590448</v>
+        <v>6773.5904479999999</v>
       </c>
       <c r="AU26" s="1">
         <v>1.881553</v>
       </c>
       <c r="AV26" s="1">
-        <v>1427.300000</v>
+        <v>1427.3</v>
       </c>
       <c r="AW26" s="1">
-        <v>-313.835000</v>
+        <v>-313.83499999999998</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>6784.218760</v>
+        <v>6784.2187599999997</v>
       </c>
       <c r="AZ26" s="1">
-        <v>1.884505</v>
+        <v>1.8845050000000001</v>
       </c>
       <c r="BA26" s="1">
-        <v>1446.390000</v>
+        <v>1446.39</v>
       </c>
       <c r="BB26" s="1">
-        <v>-366.481000</v>
+        <v>-366.48099999999999</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>6795.900004</v>
+        <v>6795.9000040000001</v>
       </c>
       <c r="BE26" s="1">
-        <v>1.887750</v>
+        <v>1.88775</v>
       </c>
       <c r="BF26" s="1">
-        <v>1530.230000</v>
+        <v>1530.23</v>
       </c>
       <c r="BG26" s="1">
-        <v>-617.893000</v>
+        <v>-617.89300000000003</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>6806.664711</v>
+        <v>6806.6647110000004</v>
       </c>
       <c r="BJ26" s="1">
-        <v>1.890740</v>
+        <v>1.8907400000000001</v>
       </c>
       <c r="BK26" s="1">
-        <v>1682.240000</v>
+        <v>1682.24</v>
       </c>
       <c r="BL26" s="1">
-        <v>-1070.890000</v>
+        <v>-1070.8900000000001</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>6817.045944</v>
+        <v>6817.0459440000004</v>
       </c>
       <c r="BO26" s="1">
         <v>1.893624</v>
       </c>
       <c r="BP26" s="1">
-        <v>1973.960000</v>
+        <v>1973.96</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-1859.670000</v>
+        <v>-1859.67</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>6827.768952</v>
+        <v>6827.7689520000004</v>
       </c>
       <c r="BT26" s="1">
-        <v>1.896602</v>
+        <v>1.8966019999999999</v>
       </c>
       <c r="BU26" s="1">
-        <v>2361.360000</v>
+        <v>2361.36</v>
       </c>
       <c r="BV26" s="1">
-        <v>-2772.110000</v>
+        <v>-2772.11</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
         <v>6838.704283</v>
       </c>
       <c r="BY26" s="1">
-        <v>1.899640</v>
+        <v>1.89964</v>
       </c>
       <c r="BZ26" s="1">
-        <v>2845.040000</v>
+        <v>2845.04</v>
       </c>
       <c r="CA26" s="1">
-        <v>-3776.210000</v>
+        <v>-3776.21</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>6852.180056</v>
+        <v>6852.1800560000001</v>
       </c>
       <c r="CD26" s="1">
         <v>1.903383</v>
       </c>
       <c r="CE26" s="1">
-        <v>4289.920000</v>
+        <v>4289.92</v>
       </c>
       <c r="CF26" s="1">
-        <v>-6203.450000</v>
+        <v>-6203.45</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>